--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7627E9D-7EAE-42FF-9A5A-6B68102F43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067DE6F-764D-41BE-9FC7-78B99BE40657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="2370" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2704,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6409,8 +6409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B038B75F-C023-45BB-9C5E-2448F504CF83}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9067DE6F-764D-41BE-9FC7-78B99BE40657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D2F08-A128-4365-A5EF-BF8D1A3F1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="2370" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D2F08-A128-4365-A5EF-BF8D1A3F1AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EE3C1-2732-4363-A3BA-C43E3AB4BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2055" windowWidth="21600" windowHeight="12675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2704,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4146,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA0F2A-A97B-42BF-BD16-0283FFE6BEE7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EE3C1-2732-4363-A3BA-C43E3AB4BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D631EF1-FB53-4168-8F49-E867E08F2743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2055" windowWidth="21600" windowHeight="12675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="3840" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -168,31 +169,6 @@
             <v>2020</v>
           </cell>
         </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="2">
@@ -2434,6 +2410,73 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Energy, Winter"/>
+      <sheetName val="Flexibility, Winter"/>
+      <sheetName val="Secondary Reserve, Winter"/>
+      <sheetName val="Tertiary Reserve Up, Winter"/>
+      <sheetName val="Tertiary Reserve Down, Winter"/>
+      <sheetName val="Energy, Summer"/>
+      <sheetName val="Flexibility, Summer"/>
+      <sheetName val="Secondary Reserve, Summer"/>
+      <sheetName val="Tertiary Reserve Up, Summer"/>
+      <sheetName val="Tertiary Reserve Down, Summer"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2704,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2763,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2772,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2781,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2790,7 +2833,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
+        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4146,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA0F2A-A97B-42BF-BD16-0283FFE6BEE7}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D631EF1-FB53-4168-8F49-E867E08F2743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA69744-19AA-4C82-A9F7-BED21C058A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="3840" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24870" yWindow="4725" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -169,2247 +169,42 @@
             <v>2020</v>
           </cell>
         </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>43.71</v>
-          </cell>
-          <cell r="C2">
-            <v>40.784999999999997</v>
-          </cell>
-          <cell r="D2">
-            <v>39.052499999999995</v>
-          </cell>
-          <cell r="E2">
-            <v>36.622500000000002</v>
-          </cell>
-          <cell r="F2">
-            <v>37.715000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>40.745000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>49.295000000000002</v>
-          </cell>
-          <cell r="I2">
-            <v>51.59</v>
-          </cell>
-          <cell r="J2">
-            <v>54.25</v>
-          </cell>
-          <cell r="K2">
-            <v>53.837499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>52.800000000000004</v>
-          </cell>
-          <cell r="M2">
-            <v>52.542499999999997</v>
-          </cell>
-          <cell r="N2">
-            <v>50.507499999999993</v>
-          </cell>
-          <cell r="O2">
-            <v>49.795000000000002</v>
-          </cell>
-          <cell r="P2">
-            <v>48.817500000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>48.914999999999999</v>
-          </cell>
-          <cell r="R2">
-            <v>49.67</v>
-          </cell>
-          <cell r="S2">
-            <v>52.125</v>
-          </cell>
-          <cell r="T2">
-            <v>54.620000000000005</v>
-          </cell>
-          <cell r="U2">
-            <v>55.040000000000006</v>
-          </cell>
-          <cell r="V2">
-            <v>53.769999999999996</v>
-          </cell>
-          <cell r="W2">
-            <v>50.392499999999998</v>
-          </cell>
-          <cell r="X2">
-            <v>45.482500000000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>42.69</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>40.82</v>
-          </cell>
-          <cell r="C3">
-            <v>38.53</v>
-          </cell>
-          <cell r="D3">
-            <v>36.034999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>34.424999999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>36.340000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>38.28</v>
-          </cell>
-          <cell r="H3">
-            <v>44.2</v>
-          </cell>
-          <cell r="I3">
-            <v>46.17</v>
-          </cell>
-          <cell r="J3">
-            <v>48.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>48.805</v>
-          </cell>
-          <cell r="L3">
-            <v>47.400000000000006</v>
-          </cell>
-          <cell r="M3">
-            <v>46.424999999999997</v>
-          </cell>
-          <cell r="N3">
-            <v>45.004999999999995</v>
-          </cell>
-          <cell r="O3">
-            <v>44.53</v>
-          </cell>
-          <cell r="P3">
-            <v>42.545000000000002</v>
-          </cell>
-          <cell r="Q3">
-            <v>42.21</v>
-          </cell>
-          <cell r="R3">
-            <v>43.08</v>
-          </cell>
-          <cell r="S3">
-            <v>47.5</v>
-          </cell>
-          <cell r="T3">
-            <v>49.730000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>50.510000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>50.79</v>
-          </cell>
-          <cell r="W3">
-            <v>48.534999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>43.954999999999998</v>
-          </cell>
-          <cell r="Y3">
-            <v>41.71</v>
-          </cell>
-        </row>
         <row r="4">
           <cell r="B4">
-            <v>46.6</v>
-          </cell>
-          <cell r="C4">
-            <v>43.04</v>
-          </cell>
-          <cell r="D4">
-            <v>42.07</v>
-          </cell>
-          <cell r="E4">
-            <v>38.82</v>
-          </cell>
-          <cell r="F4">
-            <v>39.090000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>43.21</v>
-          </cell>
-          <cell r="H4">
-            <v>54.39</v>
-          </cell>
-          <cell r="I4">
-            <v>57.01</v>
-          </cell>
-          <cell r="J4">
-            <v>60.02</v>
-          </cell>
-          <cell r="K4">
-            <v>58.87</v>
-          </cell>
-          <cell r="L4">
-            <v>58.2</v>
-          </cell>
-          <cell r="M4">
-            <v>58.66</v>
-          </cell>
-          <cell r="N4">
-            <v>56.01</v>
-          </cell>
-          <cell r="O4">
-            <v>55.06</v>
-          </cell>
-          <cell r="P4">
-            <v>55.09</v>
-          </cell>
-          <cell r="Q4">
-            <v>55.62</v>
-          </cell>
-          <cell r="R4">
-            <v>56.26</v>
-          </cell>
-          <cell r="S4">
-            <v>56.75</v>
-          </cell>
-          <cell r="T4">
-            <v>59.51</v>
-          </cell>
-          <cell r="U4">
-            <v>59.57</v>
-          </cell>
-          <cell r="V4">
-            <v>56.75</v>
-          </cell>
-          <cell r="W4">
-            <v>52.25</v>
-          </cell>
-          <cell r="X4">
-            <v>47.01</v>
-          </cell>
-          <cell r="Y4">
-            <v>43.67</v>
+            <v>5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.02</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C2">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D2">
-            <v>46.863</v>
-          </cell>
-          <cell r="E2">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F2">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H2">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I2">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K2">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M2">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N2">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O2">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P2">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q2">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R2">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S2">
-            <v>62.55</v>
-          </cell>
-          <cell r="T2">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V2">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X2">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y2">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C3">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D3">
-            <v>46.863</v>
-          </cell>
-          <cell r="E3">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F3">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G3">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H3">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I3">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J3">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K3">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L3">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M3">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O3">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P3">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q3">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R3">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S3">
-            <v>62.55</v>
-          </cell>
-          <cell r="T3">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U3">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V3">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X3">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y3">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>52.451999999999998</v>
-          </cell>
-          <cell r="C4">
-            <v>48.941999999999993</v>
-          </cell>
-          <cell r="D4">
-            <v>46.863</v>
-          </cell>
-          <cell r="E4">
-            <v>43.947000000000003</v>
-          </cell>
-          <cell r="F4">
-            <v>45.258000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>48.894000000000005</v>
-          </cell>
-          <cell r="H4">
-            <v>59.153999999999989</v>
-          </cell>
-          <cell r="I4">
-            <v>61.908000000000001</v>
-          </cell>
-          <cell r="J4">
-            <v>65.099999999999994</v>
-          </cell>
-          <cell r="K4">
-            <v>64.60499999999999</v>
-          </cell>
-          <cell r="L4">
-            <v>63.360000000000014</v>
-          </cell>
-          <cell r="M4">
-            <v>63.050999999999995</v>
-          </cell>
-          <cell r="N4">
-            <v>60.608999999999988</v>
-          </cell>
-          <cell r="O4">
-            <v>59.753999999999991</v>
-          </cell>
-          <cell r="P4">
-            <v>58.581000000000003</v>
-          </cell>
-          <cell r="Q4">
-            <v>58.697999999999993</v>
-          </cell>
-          <cell r="R4">
-            <v>59.603999999999992</v>
-          </cell>
-          <cell r="S4">
-            <v>62.55</v>
-          </cell>
-          <cell r="T4">
-            <v>65.543999999999997</v>
-          </cell>
-          <cell r="U4">
-            <v>66.048000000000002</v>
-          </cell>
-          <cell r="V4">
-            <v>64.524000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>60.471000000000004</v>
-          </cell>
-          <cell r="X4">
-            <v>54.578999999999994</v>
-          </cell>
-          <cell r="Y4">
-            <v>51.227999999999994</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="B2">
-            <v>25.342275000000001</v>
-          </cell>
-          <cell r="C2">
-            <v>24.594854999999999</v>
-          </cell>
-          <cell r="D2">
-            <v>27.759217499999998</v>
-          </cell>
-          <cell r="E2">
-            <v>30.54975</v>
-          </cell>
-          <cell r="F2">
-            <v>32.125005000000002</v>
-          </cell>
-          <cell r="G2">
-            <v>29.361535</v>
-          </cell>
-          <cell r="H2">
-            <v>27.199200000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>29.454137500000002</v>
-          </cell>
-          <cell r="J2">
-            <v>25.75685</v>
-          </cell>
-          <cell r="K2">
-            <v>23.352209999999999</v>
-          </cell>
-          <cell r="L2">
-            <v>22.9788</v>
-          </cell>
-          <cell r="M2">
-            <v>20.269462499999999</v>
-          </cell>
-          <cell r="N2">
-            <v>22.549799999999994</v>
-          </cell>
-          <cell r="O2">
-            <v>18.743400000000001</v>
-          </cell>
-          <cell r="P2">
-            <v>19.593999999999998</v>
-          </cell>
-          <cell r="Q2">
-            <v>16.172449999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>12.758287500000002</v>
-          </cell>
-          <cell r="S2">
-            <v>14.871139999999999</v>
-          </cell>
-          <cell r="T2">
-            <v>10.08586</v>
-          </cell>
-          <cell r="U2">
-            <v>8.7737250000000007</v>
-          </cell>
-          <cell r="V2">
-            <v>9.8389550000000003</v>
-          </cell>
-          <cell r="W2">
-            <v>13.74175</v>
-          </cell>
-          <cell r="X2">
-            <v>16.117327500000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>14.23521</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>20.34</v>
-          </cell>
-          <cell r="C3">
-            <v>21.39</v>
-          </cell>
-          <cell r="D3">
-            <v>29.287499999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>33.202500000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>36.134999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>35.917500000000004</v>
-          </cell>
-          <cell r="H3">
-            <v>35.67</v>
-          </cell>
-          <cell r="I3">
-            <v>37.387500000000003</v>
-          </cell>
-          <cell r="J3">
-            <v>34.799999999999997</v>
-          </cell>
-          <cell r="K3">
-            <v>30.075000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>30.93</v>
-          </cell>
-          <cell r="M3">
-            <v>25.297499999999999</v>
-          </cell>
-          <cell r="N3">
-            <v>28.83</v>
-          </cell>
-          <cell r="O3">
-            <v>21.509999999999998</v>
-          </cell>
-          <cell r="P3">
-            <v>22.65</v>
-          </cell>
-          <cell r="Q3">
-            <v>20.34</v>
-          </cell>
-          <cell r="R3">
-            <v>13.642500000000002</v>
-          </cell>
-          <cell r="S3">
-            <v>17.009999999999998</v>
-          </cell>
-          <cell r="T3">
-            <v>11.115</v>
-          </cell>
-          <cell r="U3">
-            <v>9.75</v>
-          </cell>
-          <cell r="V3">
-            <v>10.8825</v>
-          </cell>
-          <cell r="W3">
-            <v>12.78</v>
-          </cell>
-          <cell r="X3">
-            <v>13.657500000000001</v>
-          </cell>
-          <cell r="Y3">
-            <v>10.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>27.930999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>26.366999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>27.948</v>
-          </cell>
-          <cell r="E4">
-            <v>27.896999999999998</v>
-          </cell>
-          <cell r="F4">
-            <v>28.764000000000003</v>
-          </cell>
-          <cell r="G4">
-            <v>24.003999999999998</v>
-          </cell>
-          <cell r="H4">
-            <v>20.994999999999997</v>
-          </cell>
-          <cell r="I4">
-            <v>19.805</v>
-          </cell>
-          <cell r="J4">
-            <v>17.764999999999997</v>
-          </cell>
-          <cell r="K4">
-            <v>16.166999999999998</v>
-          </cell>
-          <cell r="L4">
-            <v>13.26</v>
-          </cell>
-          <cell r="M4">
-            <v>13.311</v>
-          </cell>
-          <cell r="N4">
-            <v>14.535</v>
-          </cell>
-          <cell r="O4">
-            <v>14.535</v>
-          </cell>
-          <cell r="P4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>12.664999999999999</v>
-          </cell>
-          <cell r="R4">
-            <v>10.658999999999999</v>
-          </cell>
-          <cell r="S4">
-            <v>11.866</v>
-          </cell>
-          <cell r="T4">
-            <v>8.8569999999999993</v>
-          </cell>
-          <cell r="U4">
-            <v>8.7210000000000001</v>
-          </cell>
-          <cell r="V4">
-            <v>9.1969999999999992</v>
-          </cell>
-          <cell r="W4">
-            <v>16.149999999999999</v>
-          </cell>
-          <cell r="X4">
-            <v>18.257999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>18.257999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>50.01</v>
-          </cell>
-          <cell r="C2">
-            <v>45</v>
-          </cell>
-          <cell r="D2">
-            <v>49</v>
-          </cell>
-          <cell r="E2">
-            <v>37.31</v>
-          </cell>
-          <cell r="F2">
-            <v>37.31</v>
-          </cell>
-          <cell r="G2">
-            <v>48</v>
-          </cell>
-          <cell r="H2">
-            <v>50.01</v>
-          </cell>
-          <cell r="I2">
-            <v>50.01</v>
-          </cell>
-          <cell r="J2">
-            <v>48</v>
-          </cell>
-          <cell r="K2">
-            <v>46.88</v>
-          </cell>
-          <cell r="L2">
-            <v>47.88</v>
-          </cell>
-          <cell r="M2">
-            <v>47.88</v>
-          </cell>
-          <cell r="N2">
-            <v>47.88</v>
-          </cell>
-          <cell r="O2">
-            <v>47.88</v>
-          </cell>
-          <cell r="P2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Q2">
-            <v>47.88</v>
-          </cell>
-          <cell r="R2">
-            <v>47.88</v>
-          </cell>
-          <cell r="S2">
-            <v>47.88</v>
-          </cell>
-          <cell r="T2">
-            <v>47.88</v>
-          </cell>
-          <cell r="U2">
-            <v>47.88</v>
-          </cell>
-          <cell r="V2">
-            <v>47.88</v>
-          </cell>
-          <cell r="W2">
-            <v>47.88</v>
-          </cell>
-          <cell r="X2">
-            <v>47.88</v>
-          </cell>
-          <cell r="Y2">
-            <v>47.88</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>47.67</v>
-          </cell>
-          <cell r="C3">
-            <v>32.44</v>
-          </cell>
-          <cell r="D3">
-            <v>32.44</v>
-          </cell>
-          <cell r="E3">
-            <v>32.44</v>
-          </cell>
-          <cell r="F3">
-            <v>32.44</v>
-          </cell>
-          <cell r="G3">
-            <v>32.44</v>
-          </cell>
-          <cell r="H3">
-            <v>32.44</v>
-          </cell>
-          <cell r="I3">
-            <v>32.44</v>
-          </cell>
-          <cell r="J3">
-            <v>47.67</v>
-          </cell>
-          <cell r="K3">
-            <v>36.44</v>
-          </cell>
-          <cell r="L3">
-            <v>37.44</v>
-          </cell>
-          <cell r="M3">
-            <v>37.44</v>
-          </cell>
-          <cell r="N3">
-            <v>37.44</v>
-          </cell>
-          <cell r="O3">
-            <v>37.44</v>
-          </cell>
-          <cell r="P3">
-            <v>37.44</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.69</v>
-          </cell>
-          <cell r="R3">
-            <v>47.67</v>
-          </cell>
-          <cell r="S3">
-            <v>44.4</v>
-          </cell>
-          <cell r="T3">
-            <v>44.4</v>
-          </cell>
-          <cell r="U3">
-            <v>44.4</v>
-          </cell>
-          <cell r="V3">
-            <v>44.4</v>
-          </cell>
-          <cell r="W3">
-            <v>47.67</v>
-          </cell>
-          <cell r="X3">
-            <v>47.67</v>
-          </cell>
-          <cell r="Y3">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>55</v>
-          </cell>
-          <cell r="C4">
-            <v>56.99</v>
-          </cell>
-          <cell r="D4">
-            <v>56.99</v>
-          </cell>
-          <cell r="E4">
-            <v>55</v>
-          </cell>
-          <cell r="F4">
-            <v>55</v>
-          </cell>
-          <cell r="G4">
-            <v>55</v>
-          </cell>
-          <cell r="H4">
-            <v>56.99</v>
-          </cell>
-          <cell r="I4">
-            <v>56.99</v>
-          </cell>
-          <cell r="J4">
-            <v>55</v>
-          </cell>
-          <cell r="K4">
-            <v>55</v>
-          </cell>
-          <cell r="L4">
-            <v>55</v>
-          </cell>
-          <cell r="M4">
-            <v>55</v>
-          </cell>
-          <cell r="N4">
-            <v>59.95</v>
-          </cell>
-          <cell r="O4">
-            <v>59.95</v>
-          </cell>
-          <cell r="P4">
-            <v>59.95</v>
-          </cell>
-          <cell r="Q4">
-            <v>59.95</v>
-          </cell>
-          <cell r="R4">
-            <v>59.95</v>
-          </cell>
-          <cell r="S4">
-            <v>55</v>
-          </cell>
-          <cell r="T4">
-            <v>55</v>
-          </cell>
-          <cell r="U4">
-            <v>55</v>
-          </cell>
-          <cell r="V4">
-            <v>55</v>
-          </cell>
-          <cell r="W4">
-            <v>55</v>
-          </cell>
-          <cell r="X4">
-            <v>55</v>
-          </cell>
-          <cell r="Y4">
-            <v>55</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>24.97</v>
-          </cell>
-          <cell r="C2">
-            <v>24.97</v>
-          </cell>
-          <cell r="D2">
-            <v>24.97</v>
-          </cell>
-          <cell r="E2">
-            <v>25.97</v>
-          </cell>
-          <cell r="F2">
-            <v>25.97</v>
-          </cell>
-          <cell r="G2">
-            <v>24.97</v>
-          </cell>
-          <cell r="H2">
-            <v>29.75</v>
-          </cell>
-          <cell r="I2">
-            <v>29.75</v>
-          </cell>
-          <cell r="J2">
-            <v>24.97</v>
-          </cell>
-          <cell r="K2">
-            <v>29.75</v>
-          </cell>
-          <cell r="L2">
-            <v>24.97</v>
-          </cell>
-          <cell r="M2">
-            <v>24.97</v>
-          </cell>
-          <cell r="N2">
-            <v>24.97</v>
-          </cell>
-          <cell r="O2">
-            <v>25.01</v>
-          </cell>
-          <cell r="P2">
-            <v>24.97</v>
-          </cell>
-          <cell r="Q2">
-            <v>24.97</v>
-          </cell>
-          <cell r="R2">
-            <v>29.75</v>
-          </cell>
-          <cell r="S2">
-            <v>29.75</v>
-          </cell>
-          <cell r="T2">
-            <v>29.75</v>
-          </cell>
-          <cell r="U2">
-            <v>29.75</v>
-          </cell>
-          <cell r="V2">
-            <v>29.75</v>
-          </cell>
-          <cell r="W2">
-            <v>29.75</v>
-          </cell>
-          <cell r="X2">
-            <v>29.75</v>
-          </cell>
-          <cell r="Y2">
-            <v>29.75</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>28.36</v>
-          </cell>
-          <cell r="C3">
-            <v>28.36</v>
-          </cell>
-          <cell r="D3">
-            <v>27.234999999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>28.86</v>
-          </cell>
-          <cell r="F3">
-            <v>28.86</v>
-          </cell>
-          <cell r="G3">
-            <v>28.36</v>
-          </cell>
-          <cell r="H3">
-            <v>37.325000000000003</v>
-          </cell>
-          <cell r="I3">
-            <v>30.75</v>
-          </cell>
-          <cell r="J3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>34.879999999999995</v>
-          </cell>
-          <cell r="L3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="M3">
-            <v>32.489999999999995</v>
-          </cell>
-          <cell r="N3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="O3">
-            <v>32.5</v>
-          </cell>
-          <cell r="P3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="Q3">
-            <v>32.480000000000004</v>
-          </cell>
-          <cell r="R3">
-            <v>34.885000000000005</v>
-          </cell>
-          <cell r="S3">
-            <v>36.875</v>
-          </cell>
-          <cell r="T3">
-            <v>36.875</v>
-          </cell>
-          <cell r="U3">
-            <v>36.875</v>
-          </cell>
-          <cell r="V3">
-            <v>36.875</v>
-          </cell>
-          <cell r="W3">
-            <v>35.370000000000005</v>
-          </cell>
-          <cell r="X3">
-            <v>30.75</v>
-          </cell>
-          <cell r="Y3">
-            <v>30.75</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.75</v>
-          </cell>
-          <cell r="C4">
-            <v>31.75</v>
-          </cell>
-          <cell r="D4">
-            <v>29.5</v>
-          </cell>
-          <cell r="E4">
-            <v>31.75</v>
-          </cell>
-          <cell r="F4">
-            <v>31.75</v>
-          </cell>
-          <cell r="G4">
-            <v>31.75</v>
-          </cell>
-          <cell r="H4">
-            <v>44.9</v>
-          </cell>
-          <cell r="I4">
-            <v>31.75</v>
-          </cell>
-          <cell r="J4">
-            <v>39.99</v>
-          </cell>
-          <cell r="K4">
-            <v>40.01</v>
-          </cell>
-          <cell r="L4">
-            <v>40.01</v>
-          </cell>
-          <cell r="M4">
-            <v>40.01</v>
-          </cell>
-          <cell r="N4">
-            <v>39.99</v>
-          </cell>
-          <cell r="O4">
-            <v>39.99</v>
-          </cell>
-          <cell r="P4">
-            <v>39.99</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.99</v>
-          </cell>
-          <cell r="R4">
-            <v>40.020000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>44</v>
-          </cell>
-          <cell r="T4">
-            <v>44</v>
-          </cell>
-          <cell r="U4">
-            <v>44</v>
-          </cell>
-          <cell r="V4">
-            <v>44</v>
-          </cell>
-          <cell r="W4">
-            <v>40.99</v>
-          </cell>
-          <cell r="X4">
-            <v>31.75</v>
-          </cell>
-          <cell r="Y4">
-            <v>31.75</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="B2">
-            <v>37.270000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>34.01</v>
-          </cell>
-          <cell r="D2">
-            <v>32.57</v>
-          </cell>
-          <cell r="E2">
-            <v>31.98</v>
-          </cell>
-          <cell r="F2">
-            <v>32.130000000000003</v>
-          </cell>
-          <cell r="G2">
-            <v>36.369999999999997</v>
-          </cell>
-          <cell r="H2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="I2">
-            <v>37.909999999999997</v>
-          </cell>
-          <cell r="J2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="K2">
-            <v>39.94</v>
-          </cell>
-          <cell r="L2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="M2">
-            <v>40.01</v>
-          </cell>
-          <cell r="N2">
-            <v>39.44</v>
-          </cell>
-          <cell r="O2">
-            <v>39.19</v>
-          </cell>
-          <cell r="P2">
-            <v>38.369999999999997</v>
-          </cell>
-          <cell r="Q2">
-            <v>37.19</v>
-          </cell>
-          <cell r="R2">
-            <v>34.979999999999997</v>
-          </cell>
-          <cell r="S2">
-            <v>37.369999999999997</v>
-          </cell>
-          <cell r="T2">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="U2">
-            <v>39.9</v>
-          </cell>
-          <cell r="V2">
-            <v>39.04</v>
-          </cell>
-          <cell r="W2">
-            <v>39.840000000000003</v>
-          </cell>
-          <cell r="X2">
-            <v>39.76</v>
-          </cell>
-          <cell r="Y2">
-            <v>38.14</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>39.68</v>
-          </cell>
-          <cell r="C3">
-            <v>35</v>
-          </cell>
-          <cell r="D3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>36.9</v>
-          </cell>
-          <cell r="F3">
-            <v>37.61</v>
-          </cell>
-          <cell r="G3">
-            <v>38.200000000000003</v>
-          </cell>
-          <cell r="H3">
-            <v>37.21</v>
-          </cell>
-          <cell r="I3">
-            <v>40.18</v>
-          </cell>
-          <cell r="J3">
-            <v>42.84</v>
-          </cell>
-          <cell r="K3">
-            <v>43.03</v>
-          </cell>
-          <cell r="L3">
-            <v>43.45</v>
-          </cell>
-          <cell r="M3">
-            <v>44.27</v>
-          </cell>
-          <cell r="N3">
-            <v>44.97</v>
-          </cell>
-          <cell r="O3">
-            <v>46.14</v>
-          </cell>
-          <cell r="P3">
-            <v>44.39</v>
-          </cell>
-          <cell r="Q3">
-            <v>43.01</v>
-          </cell>
-          <cell r="R3">
-            <v>42.86</v>
-          </cell>
-          <cell r="S3">
-            <v>43.73</v>
-          </cell>
-          <cell r="T3">
-            <v>43.97</v>
-          </cell>
-          <cell r="U3">
-            <v>44.9</v>
-          </cell>
-          <cell r="V3">
-            <v>45.45</v>
-          </cell>
-          <cell r="W3">
-            <v>46.15</v>
-          </cell>
-          <cell r="X3">
-            <v>44.97</v>
-          </cell>
-          <cell r="Y3">
-            <v>42.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>33.39</v>
-          </cell>
-          <cell r="C4">
-            <v>30.82</v>
-          </cell>
-          <cell r="D4">
-            <v>28.89</v>
-          </cell>
-          <cell r="E4">
-            <v>28.43</v>
-          </cell>
-          <cell r="F4">
-            <v>29.41</v>
-          </cell>
-          <cell r="G4">
-            <v>34.39</v>
-          </cell>
-          <cell r="H4">
-            <v>45.24</v>
-          </cell>
-          <cell r="I4">
-            <v>42.92</v>
-          </cell>
-          <cell r="J4">
-            <v>44.88</v>
-          </cell>
-          <cell r="K4">
-            <v>44.3</v>
-          </cell>
-          <cell r="L4">
-            <v>41.06</v>
-          </cell>
-          <cell r="M4">
-            <v>39.9</v>
-          </cell>
-          <cell r="N4">
-            <v>44.18</v>
-          </cell>
-          <cell r="O4">
-            <v>45.18</v>
-          </cell>
-          <cell r="P4">
-            <v>44.88</v>
-          </cell>
-          <cell r="Q4">
-            <v>44.35</v>
-          </cell>
-          <cell r="R4">
-            <v>44.35</v>
-          </cell>
-          <cell r="S4">
-            <v>44.88</v>
-          </cell>
-          <cell r="T4">
-            <v>46.18</v>
-          </cell>
-          <cell r="U4">
-            <v>47.88</v>
-          </cell>
-          <cell r="V4">
-            <v>51.18</v>
-          </cell>
-          <cell r="W4">
-            <v>55.69</v>
-          </cell>
-          <cell r="X4">
-            <v>50.77</v>
-          </cell>
-          <cell r="Y4">
-            <v>45</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C2">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D2">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E2">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F2">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G2">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H2">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I2">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J2">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L2">
-            <v>49.74</v>
-          </cell>
-          <cell r="M2">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N2">
-            <v>51.436</v>
-          </cell>
-          <cell r="O2">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P2">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q2">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R2">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S2">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T2">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U2">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W2">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X2">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y2">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C3">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D3">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E3">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F3">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G3">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H3">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I3">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J3">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K3">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L3">
-            <v>49.74</v>
-          </cell>
-          <cell r="M3">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N3">
-            <v>51.436</v>
-          </cell>
-          <cell r="O3">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P3">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q3">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R3">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S3">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T3">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U3">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V3">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W3">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X3">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y3">
-            <v>50.256</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>44.136000000000003</v>
-          </cell>
-          <cell r="C4">
-            <v>39.931999999999995</v>
-          </cell>
-          <cell r="D4">
-            <v>39.864000000000004</v>
-          </cell>
-          <cell r="E4">
-            <v>38.923999999999999</v>
-          </cell>
-          <cell r="F4">
-            <v>39.660000000000004</v>
-          </cell>
-          <cell r="G4">
-            <v>43.583999999999996</v>
-          </cell>
-          <cell r="H4">
-            <v>48.144000000000005</v>
-          </cell>
-          <cell r="I4">
-            <v>48.403999999999996</v>
-          </cell>
-          <cell r="J4">
-            <v>51.024000000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>50.907999999999994</v>
-          </cell>
-          <cell r="L4">
-            <v>49.74</v>
-          </cell>
-          <cell r="M4">
-            <v>49.672000000000004</v>
-          </cell>
-          <cell r="N4">
-            <v>51.436</v>
-          </cell>
-          <cell r="O4">
-            <v>52.203999999999994</v>
-          </cell>
-          <cell r="P4">
-            <v>51.05599999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>49.819999999999986</v>
-          </cell>
-          <cell r="R4">
-            <v>48.875999999999998</v>
-          </cell>
-          <cell r="S4">
-            <v>50.391999999999996</v>
-          </cell>
-          <cell r="T4">
-            <v>51.579999999999991</v>
-          </cell>
-          <cell r="U4">
-            <v>53.071999999999996</v>
-          </cell>
-          <cell r="V4">
-            <v>54.268000000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>56.671999999999997</v>
-          </cell>
-          <cell r="X4">
-            <v>54.199999999999996</v>
-          </cell>
-          <cell r="Y4">
-            <v>50.256</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="B2">
-            <v>10.26</v>
-          </cell>
-          <cell r="C2">
-            <v>10.909500000000001</v>
-          </cell>
-          <cell r="D2">
-            <v>10.084849999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>8.7750000000000004</v>
-          </cell>
-          <cell r="F2">
-            <v>7.9588000000000001</v>
-          </cell>
-          <cell r="G2">
-            <v>6.3310499999999994</v>
-          </cell>
-          <cell r="H2">
-            <v>5.706900000000001</v>
-          </cell>
-          <cell r="I2">
-            <v>4.8929999999999998</v>
-          </cell>
-          <cell r="J2">
-            <v>4.0228999999999999</v>
-          </cell>
-          <cell r="K2">
-            <v>4.4879999999999995</v>
-          </cell>
-          <cell r="L2">
-            <v>4.2223500000000005</v>
-          </cell>
-          <cell r="M2">
-            <v>4.0441500000000001</v>
-          </cell>
-          <cell r="N2">
-            <v>3.6749999999999998</v>
-          </cell>
-          <cell r="O2">
-            <v>4.1912000000000003</v>
-          </cell>
-          <cell r="P2">
-            <v>4.4894500000000006</v>
-          </cell>
-          <cell r="Q2">
-            <v>3.9945499999999998</v>
-          </cell>
-          <cell r="R2">
-            <v>2.9760000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>2.5608</v>
-          </cell>
-          <cell r="T2">
-            <v>3.0141000000000004</v>
-          </cell>
-          <cell r="U2">
-            <v>2.2196999999999996</v>
-          </cell>
-          <cell r="V2">
-            <v>3.6414</v>
-          </cell>
-          <cell r="W2">
-            <v>6.7825499999999996</v>
-          </cell>
-          <cell r="X2">
-            <v>7.5711999999999993</v>
-          </cell>
-          <cell r="Y2">
-            <v>6.9015499999999994</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>8</v>
-          </cell>
-          <cell r="C3">
-            <v>7.99</v>
-          </cell>
-          <cell r="D3">
-            <v>7.76</v>
-          </cell>
-          <cell r="E3">
-            <v>8</v>
-          </cell>
-          <cell r="F3">
-            <v>11</v>
-          </cell>
-          <cell r="G3">
-            <v>8.5299999999999994</v>
-          </cell>
-          <cell r="H3">
-            <v>6.44</v>
-          </cell>
-          <cell r="I3">
-            <v>4.71</v>
-          </cell>
-          <cell r="J3">
-            <v>4.67</v>
-          </cell>
-          <cell r="K3">
-            <v>5.66</v>
-          </cell>
-          <cell r="L3">
-            <v>4.79</v>
-          </cell>
-          <cell r="M3">
-            <v>5.08</v>
-          </cell>
-          <cell r="N3">
-            <v>4.07</v>
-          </cell>
-          <cell r="O3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="P3">
-            <v>5.27</v>
-          </cell>
-          <cell r="Q3">
-            <v>4.63</v>
-          </cell>
-          <cell r="R3">
-            <v>4.41</v>
-          </cell>
-          <cell r="S3">
-            <v>3.49</v>
-          </cell>
-          <cell r="T3">
-            <v>4.4400000000000004</v>
-          </cell>
-          <cell r="U3">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="V3">
-            <v>4.97</v>
-          </cell>
-          <cell r="W3">
-            <v>8.57</v>
-          </cell>
-          <cell r="X3">
-            <v>8.25</v>
-          </cell>
-          <cell r="Y3">
-            <v>6.83</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>12.52</v>
-          </cell>
-          <cell r="C4">
-            <v>12.79</v>
-          </cell>
-          <cell r="D4">
-            <v>12.21</v>
-          </cell>
-          <cell r="E4">
-            <v>9.5500000000000007</v>
-          </cell>
-          <cell r="F4">
-            <v>4.76</v>
-          </cell>
-          <cell r="G4">
-            <v>4.26</v>
-          </cell>
-          <cell r="H4">
-            <v>4.75</v>
-          </cell>
-          <cell r="I4">
-            <v>4.6100000000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>3.54</v>
-          </cell>
-          <cell r="K4">
-            <v>3.69</v>
-          </cell>
-          <cell r="L4">
-            <v>3.74</v>
-          </cell>
-          <cell r="M4">
-            <v>3.09</v>
-          </cell>
-          <cell r="N4">
-            <v>3.43</v>
-          </cell>
-          <cell r="O4">
-            <v>3.62</v>
-          </cell>
-          <cell r="P4">
-            <v>3.62</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.28</v>
-          </cell>
-          <cell r="R4">
-            <v>1.79</v>
-          </cell>
-          <cell r="S4">
-            <v>1.79</v>
-          </cell>
-          <cell r="T4">
-            <v>1.47</v>
-          </cell>
-          <cell r="U4">
-            <v>2.23</v>
-          </cell>
-          <cell r="V4">
-            <v>2.17</v>
-          </cell>
-          <cell r="W4">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="X4">
-            <v>6.31</v>
-          </cell>
-          <cell r="Y4">
-            <v>7.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="B2">
-            <v>42.153333333333336</v>
-          </cell>
-          <cell r="C2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="D2">
-            <v>42.486666666666672</v>
-          </cell>
-          <cell r="E2">
-            <v>51.303333333333335</v>
-          </cell>
-          <cell r="F2">
-            <v>44.726666666666667</v>
-          </cell>
-          <cell r="G2">
-            <v>53.636666666666677</v>
-          </cell>
-          <cell r="H2">
-            <v>52.483333333333327</v>
-          </cell>
-          <cell r="I2">
-            <v>40.266666666666673</v>
-          </cell>
-          <cell r="J2">
-            <v>40.466666666666669</v>
-          </cell>
-          <cell r="K2">
-            <v>59.133333333333333</v>
-          </cell>
-          <cell r="L2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="M2">
-            <v>40.833333333333336</v>
-          </cell>
-          <cell r="N2">
-            <v>59.5</v>
-          </cell>
-          <cell r="O2">
-            <v>59.5</v>
-          </cell>
-          <cell r="P2">
-            <v>44.09</v>
-          </cell>
-          <cell r="Q2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="R2">
-            <v>40.800000000000004</v>
-          </cell>
-          <cell r="S2">
-            <v>41.06666666666667</v>
-          </cell>
-          <cell r="T2">
-            <v>40.866666666666667</v>
-          </cell>
-          <cell r="U2">
-            <v>44.09</v>
-          </cell>
-          <cell r="V2">
-            <v>40.6</v>
-          </cell>
-          <cell r="W2">
-            <v>45.860000000000007</v>
-          </cell>
-          <cell r="X2">
-            <v>37.6</v>
-          </cell>
-          <cell r="Y2">
-            <v>37.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>36.216666666666669</v>
-          </cell>
-          <cell r="C3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="D3">
-            <v>36.88333333333334</v>
-          </cell>
-          <cell r="E3">
-            <v>45.351666666666667</v>
-          </cell>
-          <cell r="F3">
-            <v>40.36333333333333</v>
-          </cell>
-          <cell r="G3">
-            <v>61.338333333333338</v>
-          </cell>
-          <cell r="H3">
-            <v>60.76166666666667</v>
-          </cell>
-          <cell r="I3">
-            <v>39.833333333333336</v>
-          </cell>
-          <cell r="J3">
-            <v>40.233333333333334</v>
-          </cell>
-          <cell r="K3">
-            <v>49.266666666666666</v>
-          </cell>
-          <cell r="L3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="M3">
-            <v>40.116666666666667</v>
-          </cell>
-          <cell r="N3">
-            <v>49.45</v>
-          </cell>
-          <cell r="O3">
-            <v>49.45</v>
-          </cell>
-          <cell r="P3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="Q3">
-            <v>40.1</v>
-          </cell>
-          <cell r="R3">
-            <v>40.400000000000006</v>
-          </cell>
-          <cell r="S3">
-            <v>40.63333333333334</v>
-          </cell>
-          <cell r="T3">
-            <v>40.533333333333331</v>
-          </cell>
-          <cell r="U3">
-            <v>41.745000000000005</v>
-          </cell>
-          <cell r="V3">
-            <v>40</v>
-          </cell>
-          <cell r="W3">
-            <v>42.63</v>
-          </cell>
-          <cell r="X3">
-            <v>38.799999999999997</v>
-          </cell>
-          <cell r="Y3">
-            <v>38.799999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>30.28</v>
-          </cell>
-          <cell r="C4">
-            <v>31.28</v>
-          </cell>
-          <cell r="D4">
-            <v>31.28</v>
-          </cell>
-          <cell r="E4">
-            <v>39.4</v>
-          </cell>
-          <cell r="F4">
-            <v>36</v>
-          </cell>
-          <cell r="G4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="H4">
-            <v>69.040000000000006</v>
-          </cell>
-          <cell r="I4">
-            <v>39.4</v>
-          </cell>
-          <cell r="J4">
-            <v>40</v>
-          </cell>
-          <cell r="K4">
-            <v>39.4</v>
-          </cell>
-          <cell r="L4">
-            <v>39.4</v>
-          </cell>
-          <cell r="M4">
-            <v>39.4</v>
-          </cell>
-          <cell r="N4">
-            <v>39.4</v>
-          </cell>
-          <cell r="O4">
-            <v>39.4</v>
-          </cell>
-          <cell r="P4">
-            <v>39.4</v>
-          </cell>
-          <cell r="Q4">
-            <v>39.4</v>
-          </cell>
-          <cell r="R4">
-            <v>40</v>
-          </cell>
-          <cell r="S4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="T4">
-            <v>40.200000000000003</v>
-          </cell>
-          <cell r="U4">
-            <v>39.4</v>
-          </cell>
-          <cell r="V4">
-            <v>39.4</v>
-          </cell>
-          <cell r="W4">
-            <v>39.4</v>
-          </cell>
-          <cell r="X4">
-            <v>40</v>
-          </cell>
-          <cell r="Y4">
-            <v>40</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>24.09</v>
-          </cell>
-          <cell r="C2">
-            <v>24.09</v>
-          </cell>
-          <cell r="D2">
-            <v>24.09</v>
-          </cell>
-          <cell r="E2">
-            <v>24.09</v>
-          </cell>
-          <cell r="F2">
-            <v>29.04</v>
-          </cell>
-          <cell r="G2">
-            <v>29.03</v>
-          </cell>
-          <cell r="H2">
-            <v>29.05</v>
-          </cell>
-          <cell r="I2">
-            <v>29.04</v>
-          </cell>
-          <cell r="J2">
-            <v>29.04</v>
-          </cell>
-          <cell r="K2">
-            <v>29.05</v>
-          </cell>
-          <cell r="L2">
-            <v>32</v>
-          </cell>
-          <cell r="M2">
-            <v>29.03</v>
-          </cell>
-          <cell r="N2">
-            <v>29.03</v>
-          </cell>
-          <cell r="O2">
-            <v>29.03</v>
-          </cell>
-          <cell r="P2">
-            <v>32</v>
-          </cell>
-          <cell r="Q2">
-            <v>29.01</v>
-          </cell>
-          <cell r="R2">
-            <v>32</v>
-          </cell>
-          <cell r="S2">
-            <v>29.01</v>
-          </cell>
-          <cell r="T2">
-            <v>29.01</v>
-          </cell>
-          <cell r="U2">
-            <v>29.01</v>
-          </cell>
-          <cell r="V2">
-            <v>29.01</v>
-          </cell>
-          <cell r="W2">
-            <v>29.01</v>
-          </cell>
-          <cell r="X2">
-            <v>29.01</v>
-          </cell>
-          <cell r="Y2">
-            <v>27.98</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="C3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="D3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>27.917499999999997</v>
-          </cell>
-          <cell r="F3">
-            <v>31.63</v>
-          </cell>
-          <cell r="G3">
-            <v>23.537500000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>29.28</v>
-          </cell>
-          <cell r="I3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="J3">
-            <v>26.9175</v>
-          </cell>
-          <cell r="K3">
-            <v>30.950000000000003</v>
-          </cell>
-          <cell r="L3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="M3">
-            <v>30.935000000000002</v>
-          </cell>
-          <cell r="N3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="O3">
-            <v>29.265000000000001</v>
-          </cell>
-          <cell r="P3">
-            <v>31.4925</v>
-          </cell>
-          <cell r="Q3">
-            <v>30.92</v>
-          </cell>
-          <cell r="R3">
-            <v>33.162500000000001</v>
-          </cell>
-          <cell r="S3">
-            <v>30.92</v>
-          </cell>
-          <cell r="T3">
-            <v>30.92</v>
-          </cell>
-          <cell r="U3">
-            <v>30.92</v>
-          </cell>
-          <cell r="V3">
-            <v>30.92</v>
-          </cell>
-          <cell r="W3">
-            <v>29.25</v>
-          </cell>
-          <cell r="X3">
-            <v>28.305</v>
-          </cell>
-          <cell r="Y3">
-            <v>27.532499999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="C4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="D4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>31.744999999999997</v>
-          </cell>
-          <cell r="F4">
-            <v>34.22</v>
-          </cell>
-          <cell r="G4">
-            <v>18.045000000000002</v>
-          </cell>
-          <cell r="H4">
-            <v>29.509999999999998</v>
-          </cell>
-          <cell r="I4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="J4">
-            <v>24.795000000000002</v>
-          </cell>
-          <cell r="K4">
-            <v>32.85</v>
-          </cell>
-          <cell r="L4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="M4">
-            <v>32.840000000000003</v>
-          </cell>
-          <cell r="N4">
-            <v>29.5</v>
-          </cell>
-          <cell r="O4">
-            <v>29.5</v>
-          </cell>
-          <cell r="P4">
-            <v>30.984999999999999</v>
-          </cell>
-          <cell r="Q4">
-            <v>32.83</v>
-          </cell>
-          <cell r="R4">
-            <v>34.325000000000003</v>
-          </cell>
-          <cell r="S4">
-            <v>32.83</v>
-          </cell>
-          <cell r="T4">
-            <v>32.83</v>
-          </cell>
-          <cell r="U4">
-            <v>32.83</v>
-          </cell>
-          <cell r="V4">
-            <v>32.83</v>
-          </cell>
-          <cell r="W4">
-            <v>29.490000000000002</v>
-          </cell>
-          <cell r="X4">
-            <v>27.6</v>
-          </cell>
-          <cell r="Y4">
-            <v>27.085000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2435,48 +230,2247 @@
       <sheetName val="Tertiary Reserve Down, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>2020</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>43.71</v>
+          </cell>
+          <cell r="C2">
+            <v>40.784999999999997</v>
+          </cell>
+          <cell r="D2">
+            <v>39.052499999999995</v>
+          </cell>
+          <cell r="E2">
+            <v>36.622500000000002</v>
+          </cell>
+          <cell r="F2">
+            <v>37.715000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>40.745000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>49.295000000000002</v>
+          </cell>
+          <cell r="I2">
+            <v>51.59</v>
+          </cell>
+          <cell r="J2">
+            <v>54.25</v>
+          </cell>
+          <cell r="K2">
+            <v>53.837499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>52.800000000000004</v>
+          </cell>
+          <cell r="M2">
+            <v>52.542499999999997</v>
+          </cell>
+          <cell r="N2">
+            <v>50.507499999999993</v>
+          </cell>
+          <cell r="O2">
+            <v>49.795000000000002</v>
+          </cell>
+          <cell r="P2">
+            <v>48.817500000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>48.914999999999999</v>
+          </cell>
+          <cell r="R2">
+            <v>49.67</v>
+          </cell>
+          <cell r="S2">
+            <v>52.125</v>
+          </cell>
+          <cell r="T2">
+            <v>54.620000000000005</v>
+          </cell>
+          <cell r="U2">
+            <v>55.040000000000006</v>
+          </cell>
+          <cell r="V2">
+            <v>53.769999999999996</v>
+          </cell>
+          <cell r="W2">
+            <v>50.392499999999998</v>
+          </cell>
+          <cell r="X2">
+            <v>45.482500000000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>42.69</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>40.82</v>
+          </cell>
+          <cell r="C3">
+            <v>38.53</v>
+          </cell>
+          <cell r="D3">
+            <v>36.034999999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>34.424999999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>36.340000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>38.28</v>
+          </cell>
+          <cell r="H3">
+            <v>44.2</v>
+          </cell>
+          <cell r="I3">
+            <v>46.17</v>
+          </cell>
+          <cell r="J3">
+            <v>48.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>48.805</v>
+          </cell>
+          <cell r="L3">
+            <v>47.400000000000006</v>
+          </cell>
+          <cell r="M3">
+            <v>46.424999999999997</v>
+          </cell>
+          <cell r="N3">
+            <v>45.004999999999995</v>
+          </cell>
+          <cell r="O3">
+            <v>44.53</v>
+          </cell>
+          <cell r="P3">
+            <v>42.545000000000002</v>
+          </cell>
+          <cell r="Q3">
+            <v>42.21</v>
+          </cell>
+          <cell r="R3">
+            <v>43.08</v>
+          </cell>
+          <cell r="S3">
+            <v>47.5</v>
+          </cell>
+          <cell r="T3">
+            <v>49.730000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>50.510000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>50.79</v>
+          </cell>
+          <cell r="W3">
+            <v>48.534999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>43.954999999999998</v>
+          </cell>
+          <cell r="Y3">
+            <v>41.71</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.02</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.02</v>
+            <v>46.6</v>
+          </cell>
+          <cell r="C4">
+            <v>43.04</v>
+          </cell>
+          <cell r="D4">
+            <v>42.07</v>
+          </cell>
+          <cell r="E4">
+            <v>38.82</v>
+          </cell>
+          <cell r="F4">
+            <v>39.090000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>43.21</v>
+          </cell>
+          <cell r="H4">
+            <v>54.39</v>
+          </cell>
+          <cell r="I4">
+            <v>57.01</v>
+          </cell>
+          <cell r="J4">
+            <v>60.02</v>
+          </cell>
+          <cell r="K4">
+            <v>58.87</v>
+          </cell>
+          <cell r="L4">
+            <v>58.2</v>
+          </cell>
+          <cell r="M4">
+            <v>58.66</v>
+          </cell>
+          <cell r="N4">
+            <v>56.01</v>
+          </cell>
+          <cell r="O4">
+            <v>55.06</v>
+          </cell>
+          <cell r="P4">
+            <v>55.09</v>
+          </cell>
+          <cell r="Q4">
+            <v>55.62</v>
+          </cell>
+          <cell r="R4">
+            <v>56.26</v>
+          </cell>
+          <cell r="S4">
+            <v>56.75</v>
+          </cell>
+          <cell r="T4">
+            <v>59.51</v>
+          </cell>
+          <cell r="U4">
+            <v>59.57</v>
+          </cell>
+          <cell r="V4">
+            <v>56.75</v>
+          </cell>
+          <cell r="W4">
+            <v>52.25</v>
+          </cell>
+          <cell r="X4">
+            <v>47.01</v>
+          </cell>
+          <cell r="Y4">
+            <v>43.67</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C2">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D2">
+            <v>46.863</v>
+          </cell>
+          <cell r="E2">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F2">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H2">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I2">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J2">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K2">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M2">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N2">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O2">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P2">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q2">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R2">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S2">
+            <v>62.55</v>
+          </cell>
+          <cell r="T2">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V2">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X2">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y2">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C3">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D3">
+            <v>46.863</v>
+          </cell>
+          <cell r="E3">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F3">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H3">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I3">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K3">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L3">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M3">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O3">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P3">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q3">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R3">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S3">
+            <v>62.55</v>
+          </cell>
+          <cell r="T3">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U3">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V3">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X3">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y3">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>52.451999999999998</v>
+          </cell>
+          <cell r="C4">
+            <v>48.941999999999993</v>
+          </cell>
+          <cell r="D4">
+            <v>46.863</v>
+          </cell>
+          <cell r="E4">
+            <v>43.947000000000003</v>
+          </cell>
+          <cell r="F4">
+            <v>45.258000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>48.894000000000005</v>
+          </cell>
+          <cell r="H4">
+            <v>59.153999999999989</v>
+          </cell>
+          <cell r="I4">
+            <v>61.908000000000001</v>
+          </cell>
+          <cell r="J4">
+            <v>65.099999999999994</v>
+          </cell>
+          <cell r="K4">
+            <v>64.60499999999999</v>
+          </cell>
+          <cell r="L4">
+            <v>63.360000000000014</v>
+          </cell>
+          <cell r="M4">
+            <v>63.050999999999995</v>
+          </cell>
+          <cell r="N4">
+            <v>60.608999999999988</v>
+          </cell>
+          <cell r="O4">
+            <v>59.753999999999991</v>
+          </cell>
+          <cell r="P4">
+            <v>58.581000000000003</v>
+          </cell>
+          <cell r="Q4">
+            <v>58.697999999999993</v>
+          </cell>
+          <cell r="R4">
+            <v>59.603999999999992</v>
+          </cell>
+          <cell r="S4">
+            <v>62.55</v>
+          </cell>
+          <cell r="T4">
+            <v>65.543999999999997</v>
+          </cell>
+          <cell r="U4">
+            <v>66.048000000000002</v>
+          </cell>
+          <cell r="V4">
+            <v>64.524000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>60.471000000000004</v>
+          </cell>
+          <cell r="X4">
+            <v>54.578999999999994</v>
+          </cell>
+          <cell r="Y4">
+            <v>51.227999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>25.342275000000001</v>
+          </cell>
+          <cell r="C2">
+            <v>24.594854999999999</v>
+          </cell>
+          <cell r="D2">
+            <v>27.759217499999998</v>
+          </cell>
+          <cell r="E2">
+            <v>30.54975</v>
+          </cell>
+          <cell r="F2">
+            <v>32.125005000000002</v>
+          </cell>
+          <cell r="G2">
+            <v>29.361535</v>
+          </cell>
+          <cell r="H2">
+            <v>27.199200000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>29.454137500000002</v>
+          </cell>
+          <cell r="J2">
+            <v>25.75685</v>
+          </cell>
+          <cell r="K2">
+            <v>23.352209999999999</v>
+          </cell>
+          <cell r="L2">
+            <v>22.9788</v>
+          </cell>
+          <cell r="M2">
+            <v>20.269462499999999</v>
+          </cell>
+          <cell r="N2">
+            <v>22.549799999999994</v>
+          </cell>
+          <cell r="O2">
+            <v>18.743400000000001</v>
+          </cell>
+          <cell r="P2">
+            <v>19.593999999999998</v>
+          </cell>
+          <cell r="Q2">
+            <v>16.172449999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>12.758287500000002</v>
+          </cell>
+          <cell r="S2">
+            <v>14.871139999999999</v>
+          </cell>
+          <cell r="T2">
+            <v>10.08586</v>
+          </cell>
+          <cell r="U2">
+            <v>8.7737250000000007</v>
+          </cell>
+          <cell r="V2">
+            <v>9.8389550000000003</v>
+          </cell>
+          <cell r="W2">
+            <v>13.74175</v>
+          </cell>
+          <cell r="X2">
+            <v>16.117327500000002</v>
+          </cell>
+          <cell r="Y2">
+            <v>14.23521</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>20.34</v>
+          </cell>
+          <cell r="C3">
+            <v>21.39</v>
+          </cell>
+          <cell r="D3">
+            <v>29.287499999999998</v>
+          </cell>
+          <cell r="E3">
+            <v>33.202500000000001</v>
+          </cell>
+          <cell r="F3">
+            <v>36.134999999999998</v>
+          </cell>
+          <cell r="G3">
+            <v>35.917500000000004</v>
+          </cell>
+          <cell r="H3">
+            <v>35.67</v>
+          </cell>
+          <cell r="I3">
+            <v>37.387500000000003</v>
+          </cell>
+          <cell r="J3">
+            <v>34.799999999999997</v>
+          </cell>
+          <cell r="K3">
+            <v>30.075000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>30.93</v>
+          </cell>
+          <cell r="M3">
+            <v>25.297499999999999</v>
+          </cell>
+          <cell r="N3">
+            <v>28.83</v>
+          </cell>
+          <cell r="O3">
+            <v>21.509999999999998</v>
+          </cell>
+          <cell r="P3">
+            <v>22.65</v>
+          </cell>
+          <cell r="Q3">
+            <v>20.34</v>
+          </cell>
+          <cell r="R3">
+            <v>13.642500000000002</v>
+          </cell>
+          <cell r="S3">
+            <v>17.009999999999998</v>
+          </cell>
+          <cell r="T3">
+            <v>11.115</v>
+          </cell>
+          <cell r="U3">
+            <v>9.75</v>
+          </cell>
+          <cell r="V3">
+            <v>10.8825</v>
+          </cell>
+          <cell r="W3">
+            <v>12.78</v>
+          </cell>
+          <cell r="X3">
+            <v>13.657500000000001</v>
+          </cell>
+          <cell r="Y3">
+            <v>10.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>27.930999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>26.366999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>27.948</v>
+          </cell>
+          <cell r="E4">
+            <v>27.896999999999998</v>
+          </cell>
+          <cell r="F4">
+            <v>28.764000000000003</v>
+          </cell>
+          <cell r="G4">
+            <v>24.003999999999998</v>
+          </cell>
+          <cell r="H4">
+            <v>20.994999999999997</v>
+          </cell>
+          <cell r="I4">
+            <v>19.805</v>
+          </cell>
+          <cell r="J4">
+            <v>17.764999999999997</v>
+          </cell>
+          <cell r="K4">
+            <v>16.166999999999998</v>
+          </cell>
+          <cell r="L4">
+            <v>13.26</v>
+          </cell>
+          <cell r="M4">
+            <v>13.311</v>
+          </cell>
+          <cell r="N4">
+            <v>14.535</v>
+          </cell>
+          <cell r="O4">
+            <v>14.535</v>
+          </cell>
+          <cell r="P4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>12.664999999999999</v>
+          </cell>
+          <cell r="R4">
+            <v>10.658999999999999</v>
+          </cell>
+          <cell r="S4">
+            <v>11.866</v>
+          </cell>
+          <cell r="T4">
+            <v>8.8569999999999993</v>
+          </cell>
+          <cell r="U4">
+            <v>8.7210000000000001</v>
+          </cell>
+          <cell r="V4">
+            <v>9.1969999999999992</v>
+          </cell>
+          <cell r="W4">
+            <v>16.149999999999999</v>
+          </cell>
+          <cell r="X4">
+            <v>18.257999999999999</v>
+          </cell>
+          <cell r="Y4">
+            <v>18.257999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>50.01</v>
+          </cell>
+          <cell r="C2">
+            <v>45</v>
+          </cell>
+          <cell r="D2">
+            <v>49</v>
+          </cell>
+          <cell r="E2">
+            <v>37.31</v>
+          </cell>
+          <cell r="F2">
+            <v>37.31</v>
+          </cell>
+          <cell r="G2">
+            <v>48</v>
+          </cell>
+          <cell r="H2">
+            <v>50.01</v>
+          </cell>
+          <cell r="I2">
+            <v>50.01</v>
+          </cell>
+          <cell r="J2">
+            <v>48</v>
+          </cell>
+          <cell r="K2">
+            <v>46.88</v>
+          </cell>
+          <cell r="L2">
+            <v>47.88</v>
+          </cell>
+          <cell r="M2">
+            <v>47.88</v>
+          </cell>
+          <cell r="N2">
+            <v>47.88</v>
+          </cell>
+          <cell r="O2">
+            <v>47.88</v>
+          </cell>
+          <cell r="P2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Q2">
+            <v>47.88</v>
+          </cell>
+          <cell r="R2">
+            <v>47.88</v>
+          </cell>
+          <cell r="S2">
+            <v>47.88</v>
+          </cell>
+          <cell r="T2">
+            <v>47.88</v>
+          </cell>
+          <cell r="U2">
+            <v>47.88</v>
+          </cell>
+          <cell r="V2">
+            <v>47.88</v>
+          </cell>
+          <cell r="W2">
+            <v>47.88</v>
+          </cell>
+          <cell r="X2">
+            <v>47.88</v>
+          </cell>
+          <cell r="Y2">
+            <v>47.88</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>47.67</v>
+          </cell>
+          <cell r="C3">
+            <v>32.44</v>
+          </cell>
+          <cell r="D3">
+            <v>32.44</v>
+          </cell>
+          <cell r="E3">
+            <v>32.44</v>
+          </cell>
+          <cell r="F3">
+            <v>32.44</v>
+          </cell>
+          <cell r="G3">
+            <v>32.44</v>
+          </cell>
+          <cell r="H3">
+            <v>32.44</v>
+          </cell>
+          <cell r="I3">
+            <v>32.44</v>
+          </cell>
+          <cell r="J3">
+            <v>47.67</v>
+          </cell>
+          <cell r="K3">
+            <v>36.44</v>
+          </cell>
+          <cell r="L3">
+            <v>37.44</v>
+          </cell>
+          <cell r="M3">
+            <v>37.44</v>
+          </cell>
+          <cell r="N3">
+            <v>37.44</v>
+          </cell>
+          <cell r="O3">
+            <v>37.44</v>
+          </cell>
+          <cell r="P3">
+            <v>37.44</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.69</v>
+          </cell>
+          <cell r="R3">
+            <v>47.67</v>
+          </cell>
+          <cell r="S3">
+            <v>44.4</v>
+          </cell>
+          <cell r="T3">
+            <v>44.4</v>
+          </cell>
+          <cell r="U3">
+            <v>44.4</v>
+          </cell>
+          <cell r="V3">
+            <v>44.4</v>
+          </cell>
+          <cell r="W3">
+            <v>47.67</v>
+          </cell>
+          <cell r="X3">
+            <v>47.67</v>
+          </cell>
+          <cell r="Y3">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>55</v>
+          </cell>
+          <cell r="C4">
+            <v>56.99</v>
+          </cell>
+          <cell r="D4">
+            <v>56.99</v>
+          </cell>
+          <cell r="E4">
+            <v>55</v>
+          </cell>
+          <cell r="F4">
+            <v>55</v>
+          </cell>
+          <cell r="G4">
+            <v>55</v>
+          </cell>
+          <cell r="H4">
+            <v>56.99</v>
+          </cell>
+          <cell r="I4">
+            <v>56.99</v>
+          </cell>
+          <cell r="J4">
+            <v>55</v>
+          </cell>
+          <cell r="K4">
+            <v>55</v>
+          </cell>
+          <cell r="L4">
+            <v>55</v>
+          </cell>
+          <cell r="M4">
+            <v>55</v>
+          </cell>
+          <cell r="N4">
+            <v>59.95</v>
+          </cell>
+          <cell r="O4">
+            <v>59.95</v>
+          </cell>
+          <cell r="P4">
+            <v>59.95</v>
+          </cell>
+          <cell r="Q4">
+            <v>59.95</v>
+          </cell>
+          <cell r="R4">
+            <v>59.95</v>
+          </cell>
+          <cell r="S4">
+            <v>55</v>
+          </cell>
+          <cell r="T4">
+            <v>55</v>
+          </cell>
+          <cell r="U4">
+            <v>55</v>
+          </cell>
+          <cell r="V4">
+            <v>55</v>
+          </cell>
+          <cell r="W4">
+            <v>55</v>
+          </cell>
+          <cell r="X4">
+            <v>55</v>
+          </cell>
+          <cell r="Y4">
+            <v>55</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2">
+            <v>24.97</v>
+          </cell>
+          <cell r="C2">
+            <v>24.97</v>
+          </cell>
+          <cell r="D2">
+            <v>24.97</v>
+          </cell>
+          <cell r="E2">
+            <v>25.97</v>
+          </cell>
+          <cell r="F2">
+            <v>25.97</v>
+          </cell>
+          <cell r="G2">
+            <v>24.97</v>
+          </cell>
+          <cell r="H2">
+            <v>29.75</v>
+          </cell>
+          <cell r="I2">
+            <v>29.75</v>
+          </cell>
+          <cell r="J2">
+            <v>24.97</v>
+          </cell>
+          <cell r="K2">
+            <v>29.75</v>
+          </cell>
+          <cell r="L2">
+            <v>24.97</v>
+          </cell>
+          <cell r="M2">
+            <v>24.97</v>
+          </cell>
+          <cell r="N2">
+            <v>24.97</v>
+          </cell>
+          <cell r="O2">
+            <v>25.01</v>
+          </cell>
+          <cell r="P2">
+            <v>24.97</v>
+          </cell>
+          <cell r="Q2">
+            <v>24.97</v>
+          </cell>
+          <cell r="R2">
+            <v>29.75</v>
+          </cell>
+          <cell r="S2">
+            <v>29.75</v>
+          </cell>
+          <cell r="T2">
+            <v>29.75</v>
+          </cell>
+          <cell r="U2">
+            <v>29.75</v>
+          </cell>
+          <cell r="V2">
+            <v>29.75</v>
+          </cell>
+          <cell r="W2">
+            <v>29.75</v>
+          </cell>
+          <cell r="X2">
+            <v>29.75</v>
+          </cell>
+          <cell r="Y2">
+            <v>29.75</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>28.36</v>
+          </cell>
+          <cell r="C3">
+            <v>28.36</v>
+          </cell>
+          <cell r="D3">
+            <v>27.234999999999999</v>
+          </cell>
+          <cell r="E3">
+            <v>28.86</v>
+          </cell>
+          <cell r="F3">
+            <v>28.86</v>
+          </cell>
+          <cell r="G3">
+            <v>28.36</v>
+          </cell>
+          <cell r="H3">
+            <v>37.325000000000003</v>
+          </cell>
+          <cell r="I3">
+            <v>30.75</v>
+          </cell>
+          <cell r="J3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="K3">
+            <v>34.879999999999995</v>
+          </cell>
+          <cell r="L3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="M3">
+            <v>32.489999999999995</v>
+          </cell>
+          <cell r="N3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="O3">
+            <v>32.5</v>
+          </cell>
+          <cell r="P3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="Q3">
+            <v>32.480000000000004</v>
+          </cell>
+          <cell r="R3">
+            <v>34.885000000000005</v>
+          </cell>
+          <cell r="S3">
+            <v>36.875</v>
+          </cell>
+          <cell r="T3">
+            <v>36.875</v>
+          </cell>
+          <cell r="U3">
+            <v>36.875</v>
+          </cell>
+          <cell r="V3">
+            <v>36.875</v>
+          </cell>
+          <cell r="W3">
+            <v>35.370000000000005</v>
+          </cell>
+          <cell r="X3">
+            <v>30.75</v>
+          </cell>
+          <cell r="Y3">
+            <v>30.75</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.75</v>
+          </cell>
+          <cell r="C4">
+            <v>31.75</v>
+          </cell>
+          <cell r="D4">
+            <v>29.5</v>
+          </cell>
+          <cell r="E4">
+            <v>31.75</v>
+          </cell>
+          <cell r="F4">
+            <v>31.75</v>
+          </cell>
+          <cell r="G4">
+            <v>31.75</v>
+          </cell>
+          <cell r="H4">
+            <v>44.9</v>
+          </cell>
+          <cell r="I4">
+            <v>31.75</v>
+          </cell>
+          <cell r="J4">
+            <v>39.99</v>
+          </cell>
+          <cell r="K4">
+            <v>40.01</v>
+          </cell>
+          <cell r="L4">
+            <v>40.01</v>
+          </cell>
+          <cell r="M4">
+            <v>40.01</v>
+          </cell>
+          <cell r="N4">
+            <v>39.99</v>
+          </cell>
+          <cell r="O4">
+            <v>39.99</v>
+          </cell>
+          <cell r="P4">
+            <v>39.99</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.99</v>
+          </cell>
+          <cell r="R4">
+            <v>40.020000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>44</v>
+          </cell>
+          <cell r="T4">
+            <v>44</v>
+          </cell>
+          <cell r="U4">
+            <v>44</v>
+          </cell>
+          <cell r="V4">
+            <v>44</v>
+          </cell>
+          <cell r="W4">
+            <v>40.99</v>
+          </cell>
+          <cell r="X4">
+            <v>31.75</v>
+          </cell>
+          <cell r="Y4">
+            <v>31.75</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>37.270000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>34.01</v>
+          </cell>
+          <cell r="D2">
+            <v>32.57</v>
+          </cell>
+          <cell r="E2">
+            <v>31.98</v>
+          </cell>
+          <cell r="F2">
+            <v>32.130000000000003</v>
+          </cell>
+          <cell r="G2">
+            <v>36.369999999999997</v>
+          </cell>
+          <cell r="H2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="I2">
+            <v>37.909999999999997</v>
+          </cell>
+          <cell r="J2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="K2">
+            <v>39.94</v>
+          </cell>
+          <cell r="L2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="M2">
+            <v>40.01</v>
+          </cell>
+          <cell r="N2">
+            <v>39.44</v>
+          </cell>
+          <cell r="O2">
+            <v>39.19</v>
+          </cell>
+          <cell r="P2">
+            <v>38.369999999999997</v>
+          </cell>
+          <cell r="Q2">
+            <v>37.19</v>
+          </cell>
+          <cell r="R2">
+            <v>34.979999999999997</v>
+          </cell>
+          <cell r="S2">
+            <v>37.369999999999997</v>
+          </cell>
+          <cell r="T2">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="U2">
+            <v>39.9</v>
+          </cell>
+          <cell r="V2">
+            <v>39.04</v>
+          </cell>
+          <cell r="W2">
+            <v>39.840000000000003</v>
+          </cell>
+          <cell r="X2">
+            <v>39.76</v>
+          </cell>
+          <cell r="Y2">
+            <v>38.14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>39.68</v>
+          </cell>
+          <cell r="C3">
+            <v>35</v>
+          </cell>
+          <cell r="D3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="E3">
+            <v>36.9</v>
+          </cell>
+          <cell r="F3">
+            <v>37.61</v>
+          </cell>
+          <cell r="G3">
+            <v>38.200000000000003</v>
+          </cell>
+          <cell r="H3">
+            <v>37.21</v>
+          </cell>
+          <cell r="I3">
+            <v>40.18</v>
+          </cell>
+          <cell r="J3">
+            <v>42.84</v>
+          </cell>
+          <cell r="K3">
+            <v>43.03</v>
+          </cell>
+          <cell r="L3">
+            <v>43.45</v>
+          </cell>
+          <cell r="M3">
+            <v>44.27</v>
+          </cell>
+          <cell r="N3">
+            <v>44.97</v>
+          </cell>
+          <cell r="O3">
+            <v>46.14</v>
+          </cell>
+          <cell r="P3">
+            <v>44.39</v>
+          </cell>
+          <cell r="Q3">
+            <v>43.01</v>
+          </cell>
+          <cell r="R3">
+            <v>42.86</v>
+          </cell>
+          <cell r="S3">
+            <v>43.73</v>
+          </cell>
+          <cell r="T3">
+            <v>43.97</v>
+          </cell>
+          <cell r="U3">
+            <v>44.9</v>
+          </cell>
+          <cell r="V3">
+            <v>45.45</v>
+          </cell>
+          <cell r="W3">
+            <v>46.15</v>
+          </cell>
+          <cell r="X3">
+            <v>44.97</v>
+          </cell>
+          <cell r="Y3">
+            <v>42.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>33.39</v>
+          </cell>
+          <cell r="C4">
+            <v>30.82</v>
+          </cell>
+          <cell r="D4">
+            <v>28.89</v>
+          </cell>
+          <cell r="E4">
+            <v>28.43</v>
+          </cell>
+          <cell r="F4">
+            <v>29.41</v>
+          </cell>
+          <cell r="G4">
+            <v>34.39</v>
+          </cell>
+          <cell r="H4">
+            <v>45.24</v>
+          </cell>
+          <cell r="I4">
+            <v>42.92</v>
+          </cell>
+          <cell r="J4">
+            <v>44.88</v>
+          </cell>
+          <cell r="K4">
+            <v>44.3</v>
+          </cell>
+          <cell r="L4">
+            <v>41.06</v>
+          </cell>
+          <cell r="M4">
+            <v>39.9</v>
+          </cell>
+          <cell r="N4">
+            <v>44.18</v>
+          </cell>
+          <cell r="O4">
+            <v>45.18</v>
+          </cell>
+          <cell r="P4">
+            <v>44.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>44.35</v>
+          </cell>
+          <cell r="R4">
+            <v>44.35</v>
+          </cell>
+          <cell r="S4">
+            <v>44.88</v>
+          </cell>
+          <cell r="T4">
+            <v>46.18</v>
+          </cell>
+          <cell r="U4">
+            <v>47.88</v>
+          </cell>
+          <cell r="V4">
+            <v>51.18</v>
+          </cell>
+          <cell r="W4">
+            <v>55.69</v>
+          </cell>
+          <cell r="X4">
+            <v>50.77</v>
+          </cell>
+          <cell r="Y4">
+            <v>45</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C2">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D2">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E2">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G2">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H2">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I2">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J2">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L2">
+            <v>49.74</v>
+          </cell>
+          <cell r="M2">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N2">
+            <v>51.436</v>
+          </cell>
+          <cell r="O2">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P2">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q2">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R2">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S2">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T2">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U2">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W2">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X2">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y2">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C3">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D3">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E3">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F3">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G3">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H3">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I3">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J3">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L3">
+            <v>49.74</v>
+          </cell>
+          <cell r="M3">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N3">
+            <v>51.436</v>
+          </cell>
+          <cell r="O3">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P3">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R3">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S3">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T3">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U3">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V3">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W3">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X3">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y3">
+            <v>50.256</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44.136000000000003</v>
+          </cell>
+          <cell r="C4">
+            <v>39.931999999999995</v>
+          </cell>
+          <cell r="D4">
+            <v>39.864000000000004</v>
+          </cell>
+          <cell r="E4">
+            <v>38.923999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>39.660000000000004</v>
+          </cell>
+          <cell r="G4">
+            <v>43.583999999999996</v>
+          </cell>
+          <cell r="H4">
+            <v>48.144000000000005</v>
+          </cell>
+          <cell r="I4">
+            <v>48.403999999999996</v>
+          </cell>
+          <cell r="J4">
+            <v>51.024000000000001</v>
+          </cell>
+          <cell r="K4">
+            <v>50.907999999999994</v>
+          </cell>
+          <cell r="L4">
+            <v>49.74</v>
+          </cell>
+          <cell r="M4">
+            <v>49.672000000000004</v>
+          </cell>
+          <cell r="N4">
+            <v>51.436</v>
+          </cell>
+          <cell r="O4">
+            <v>52.203999999999994</v>
+          </cell>
+          <cell r="P4">
+            <v>51.05599999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>49.819999999999986</v>
+          </cell>
+          <cell r="R4">
+            <v>48.875999999999998</v>
+          </cell>
+          <cell r="S4">
+            <v>50.391999999999996</v>
+          </cell>
+          <cell r="T4">
+            <v>51.579999999999991</v>
+          </cell>
+          <cell r="U4">
+            <v>53.071999999999996</v>
+          </cell>
+          <cell r="V4">
+            <v>54.268000000000001</v>
+          </cell>
+          <cell r="W4">
+            <v>56.671999999999997</v>
+          </cell>
+          <cell r="X4">
+            <v>54.199999999999996</v>
+          </cell>
+          <cell r="Y4">
+            <v>50.256</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>10.26</v>
+          </cell>
+          <cell r="C2">
+            <v>10.909500000000001</v>
+          </cell>
+          <cell r="D2">
+            <v>10.084849999999999</v>
+          </cell>
+          <cell r="E2">
+            <v>8.7750000000000004</v>
+          </cell>
+          <cell r="F2">
+            <v>7.9588000000000001</v>
+          </cell>
+          <cell r="G2">
+            <v>6.3310499999999994</v>
+          </cell>
+          <cell r="H2">
+            <v>5.706900000000001</v>
+          </cell>
+          <cell r="I2">
+            <v>4.8929999999999998</v>
+          </cell>
+          <cell r="J2">
+            <v>4.0228999999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>4.4879999999999995</v>
+          </cell>
+          <cell r="L2">
+            <v>4.2223500000000005</v>
+          </cell>
+          <cell r="M2">
+            <v>4.0441500000000001</v>
+          </cell>
+          <cell r="N2">
+            <v>3.6749999999999998</v>
+          </cell>
+          <cell r="O2">
+            <v>4.1912000000000003</v>
+          </cell>
+          <cell r="P2">
+            <v>4.4894500000000006</v>
+          </cell>
+          <cell r="Q2">
+            <v>3.9945499999999998</v>
+          </cell>
+          <cell r="R2">
+            <v>2.9760000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>2.5608</v>
+          </cell>
+          <cell r="T2">
+            <v>3.0141000000000004</v>
+          </cell>
+          <cell r="U2">
+            <v>2.2196999999999996</v>
+          </cell>
+          <cell r="V2">
+            <v>3.6414</v>
+          </cell>
+          <cell r="W2">
+            <v>6.7825499999999996</v>
+          </cell>
+          <cell r="X2">
+            <v>7.5711999999999993</v>
+          </cell>
+          <cell r="Y2">
+            <v>6.9015499999999994</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8</v>
+          </cell>
+          <cell r="C3">
+            <v>7.99</v>
+          </cell>
+          <cell r="D3">
+            <v>7.76</v>
+          </cell>
+          <cell r="E3">
+            <v>8</v>
+          </cell>
+          <cell r="F3">
+            <v>11</v>
+          </cell>
+          <cell r="G3">
+            <v>8.5299999999999994</v>
+          </cell>
+          <cell r="H3">
+            <v>6.44</v>
+          </cell>
+          <cell r="I3">
+            <v>4.71</v>
+          </cell>
+          <cell r="J3">
+            <v>4.67</v>
+          </cell>
+          <cell r="K3">
+            <v>5.66</v>
+          </cell>
+          <cell r="L3">
+            <v>4.79</v>
+          </cell>
+          <cell r="M3">
+            <v>5.08</v>
+          </cell>
+          <cell r="N3">
+            <v>4.07</v>
+          </cell>
+          <cell r="O3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="P3">
+            <v>5.27</v>
+          </cell>
+          <cell r="Q3">
+            <v>4.63</v>
+          </cell>
+          <cell r="R3">
+            <v>4.41</v>
+          </cell>
+          <cell r="S3">
+            <v>3.49</v>
+          </cell>
+          <cell r="T3">
+            <v>4.4400000000000004</v>
+          </cell>
+          <cell r="U3">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="V3">
+            <v>4.97</v>
+          </cell>
+          <cell r="W3">
+            <v>8.57</v>
+          </cell>
+          <cell r="X3">
+            <v>8.25</v>
+          </cell>
+          <cell r="Y3">
+            <v>6.83</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>12.52</v>
+          </cell>
+          <cell r="C4">
+            <v>12.79</v>
+          </cell>
+          <cell r="D4">
+            <v>12.21</v>
+          </cell>
+          <cell r="E4">
+            <v>9.5500000000000007</v>
+          </cell>
+          <cell r="F4">
+            <v>4.76</v>
+          </cell>
+          <cell r="G4">
+            <v>4.26</v>
+          </cell>
+          <cell r="H4">
+            <v>4.75</v>
+          </cell>
+          <cell r="I4">
+            <v>4.6100000000000003</v>
+          </cell>
+          <cell r="J4">
+            <v>3.54</v>
+          </cell>
+          <cell r="K4">
+            <v>3.69</v>
+          </cell>
+          <cell r="L4">
+            <v>3.74</v>
+          </cell>
+          <cell r="M4">
+            <v>3.09</v>
+          </cell>
+          <cell r="N4">
+            <v>3.43</v>
+          </cell>
+          <cell r="O4">
+            <v>3.62</v>
+          </cell>
+          <cell r="P4">
+            <v>3.62</v>
+          </cell>
+          <cell r="Q4">
+            <v>3.28</v>
+          </cell>
+          <cell r="R4">
+            <v>1.79</v>
+          </cell>
+          <cell r="S4">
+            <v>1.79</v>
+          </cell>
+          <cell r="T4">
+            <v>1.47</v>
+          </cell>
+          <cell r="U4">
+            <v>2.23</v>
+          </cell>
+          <cell r="V4">
+            <v>2.17</v>
+          </cell>
+          <cell r="W4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="X4">
+            <v>6.31</v>
+          </cell>
+          <cell r="Y4">
+            <v>7.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>42.153333333333336</v>
+          </cell>
+          <cell r="C2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="D2">
+            <v>42.486666666666672</v>
+          </cell>
+          <cell r="E2">
+            <v>51.303333333333335</v>
+          </cell>
+          <cell r="F2">
+            <v>44.726666666666667</v>
+          </cell>
+          <cell r="G2">
+            <v>53.636666666666677</v>
+          </cell>
+          <cell r="H2">
+            <v>52.483333333333327</v>
+          </cell>
+          <cell r="I2">
+            <v>40.266666666666673</v>
+          </cell>
+          <cell r="J2">
+            <v>40.466666666666669</v>
+          </cell>
+          <cell r="K2">
+            <v>59.133333333333333</v>
+          </cell>
+          <cell r="L2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="M2">
+            <v>40.833333333333336</v>
+          </cell>
+          <cell r="N2">
+            <v>59.5</v>
+          </cell>
+          <cell r="O2">
+            <v>59.5</v>
+          </cell>
+          <cell r="P2">
+            <v>44.09</v>
+          </cell>
+          <cell r="Q2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="R2">
+            <v>40.800000000000004</v>
+          </cell>
+          <cell r="S2">
+            <v>41.06666666666667</v>
+          </cell>
+          <cell r="T2">
+            <v>40.866666666666667</v>
+          </cell>
+          <cell r="U2">
+            <v>44.09</v>
+          </cell>
+          <cell r="V2">
+            <v>40.6</v>
+          </cell>
+          <cell r="W2">
+            <v>45.860000000000007</v>
+          </cell>
+          <cell r="X2">
+            <v>37.6</v>
+          </cell>
+          <cell r="Y2">
+            <v>37.6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>36.216666666666669</v>
+          </cell>
+          <cell r="C3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="D3">
+            <v>36.88333333333334</v>
+          </cell>
+          <cell r="E3">
+            <v>45.351666666666667</v>
+          </cell>
+          <cell r="F3">
+            <v>40.36333333333333</v>
+          </cell>
+          <cell r="G3">
+            <v>61.338333333333338</v>
+          </cell>
+          <cell r="H3">
+            <v>60.76166666666667</v>
+          </cell>
+          <cell r="I3">
+            <v>39.833333333333336</v>
+          </cell>
+          <cell r="J3">
+            <v>40.233333333333334</v>
+          </cell>
+          <cell r="K3">
+            <v>49.266666666666666</v>
+          </cell>
+          <cell r="L3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="M3">
+            <v>40.116666666666667</v>
+          </cell>
+          <cell r="N3">
+            <v>49.45</v>
+          </cell>
+          <cell r="O3">
+            <v>49.45</v>
+          </cell>
+          <cell r="P3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="Q3">
+            <v>40.1</v>
+          </cell>
+          <cell r="R3">
+            <v>40.400000000000006</v>
+          </cell>
+          <cell r="S3">
+            <v>40.63333333333334</v>
+          </cell>
+          <cell r="T3">
+            <v>40.533333333333331</v>
+          </cell>
+          <cell r="U3">
+            <v>41.745000000000005</v>
+          </cell>
+          <cell r="V3">
+            <v>40</v>
+          </cell>
+          <cell r="W3">
+            <v>42.63</v>
+          </cell>
+          <cell r="X3">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="Y3">
+            <v>38.799999999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>30.28</v>
+          </cell>
+          <cell r="C4">
+            <v>31.28</v>
+          </cell>
+          <cell r="D4">
+            <v>31.28</v>
+          </cell>
+          <cell r="E4">
+            <v>39.4</v>
+          </cell>
+          <cell r="F4">
+            <v>36</v>
+          </cell>
+          <cell r="G4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="H4">
+            <v>69.040000000000006</v>
+          </cell>
+          <cell r="I4">
+            <v>39.4</v>
+          </cell>
+          <cell r="J4">
+            <v>40</v>
+          </cell>
+          <cell r="K4">
+            <v>39.4</v>
+          </cell>
+          <cell r="L4">
+            <v>39.4</v>
+          </cell>
+          <cell r="M4">
+            <v>39.4</v>
+          </cell>
+          <cell r="N4">
+            <v>39.4</v>
+          </cell>
+          <cell r="O4">
+            <v>39.4</v>
+          </cell>
+          <cell r="P4">
+            <v>39.4</v>
+          </cell>
+          <cell r="Q4">
+            <v>39.4</v>
+          </cell>
+          <cell r="R4">
+            <v>40</v>
+          </cell>
+          <cell r="S4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="T4">
+            <v>40.200000000000003</v>
+          </cell>
+          <cell r="U4">
+            <v>39.4</v>
+          </cell>
+          <cell r="V4">
+            <v>39.4</v>
+          </cell>
+          <cell r="W4">
+            <v>39.4</v>
+          </cell>
+          <cell r="X4">
+            <v>40</v>
+          </cell>
+          <cell r="Y4">
+            <v>40</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="B2">
+            <v>24.09</v>
+          </cell>
+          <cell r="C2">
+            <v>24.09</v>
+          </cell>
+          <cell r="D2">
+            <v>24.09</v>
+          </cell>
+          <cell r="E2">
+            <v>24.09</v>
+          </cell>
+          <cell r="F2">
+            <v>29.04</v>
+          </cell>
+          <cell r="G2">
+            <v>29.03</v>
+          </cell>
+          <cell r="H2">
+            <v>29.05</v>
+          </cell>
+          <cell r="I2">
+            <v>29.04</v>
+          </cell>
+          <cell r="J2">
+            <v>29.04</v>
+          </cell>
+          <cell r="K2">
+            <v>29.05</v>
+          </cell>
+          <cell r="L2">
+            <v>32</v>
+          </cell>
+          <cell r="M2">
+            <v>29.03</v>
+          </cell>
+          <cell r="N2">
+            <v>29.03</v>
+          </cell>
+          <cell r="O2">
+            <v>29.03</v>
+          </cell>
+          <cell r="P2">
+            <v>32</v>
+          </cell>
+          <cell r="Q2">
+            <v>29.01</v>
+          </cell>
+          <cell r="R2">
+            <v>32</v>
+          </cell>
+          <cell r="S2">
+            <v>29.01</v>
+          </cell>
+          <cell r="T2">
+            <v>29.01</v>
+          </cell>
+          <cell r="U2">
+            <v>29.01</v>
+          </cell>
+          <cell r="V2">
+            <v>29.01</v>
+          </cell>
+          <cell r="W2">
+            <v>29.01</v>
+          </cell>
+          <cell r="X2">
+            <v>29.01</v>
+          </cell>
+          <cell r="Y2">
+            <v>27.98</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="C3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="D3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="E3">
+            <v>27.917499999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>31.63</v>
+          </cell>
+          <cell r="G3">
+            <v>23.537500000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>29.28</v>
+          </cell>
+          <cell r="I3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="J3">
+            <v>26.9175</v>
+          </cell>
+          <cell r="K3">
+            <v>30.950000000000003</v>
+          </cell>
+          <cell r="L3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="M3">
+            <v>30.935000000000002</v>
+          </cell>
+          <cell r="N3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="O3">
+            <v>29.265000000000001</v>
+          </cell>
+          <cell r="P3">
+            <v>31.4925</v>
+          </cell>
+          <cell r="Q3">
+            <v>30.92</v>
+          </cell>
+          <cell r="R3">
+            <v>33.162500000000001</v>
+          </cell>
+          <cell r="S3">
+            <v>30.92</v>
+          </cell>
+          <cell r="T3">
+            <v>30.92</v>
+          </cell>
+          <cell r="U3">
+            <v>30.92</v>
+          </cell>
+          <cell r="V3">
+            <v>30.92</v>
+          </cell>
+          <cell r="W3">
+            <v>29.25</v>
+          </cell>
+          <cell r="X3">
+            <v>28.305</v>
+          </cell>
+          <cell r="Y3">
+            <v>27.532499999999999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="D4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="E4">
+            <v>31.744999999999997</v>
+          </cell>
+          <cell r="F4">
+            <v>34.22</v>
+          </cell>
+          <cell r="G4">
+            <v>18.045000000000002</v>
+          </cell>
+          <cell r="H4">
+            <v>29.509999999999998</v>
+          </cell>
+          <cell r="I4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="J4">
+            <v>24.795000000000002</v>
+          </cell>
+          <cell r="K4">
+            <v>32.85</v>
+          </cell>
+          <cell r="L4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="M4">
+            <v>32.840000000000003</v>
+          </cell>
+          <cell r="N4">
+            <v>29.5</v>
+          </cell>
+          <cell r="O4">
+            <v>29.5</v>
+          </cell>
+          <cell r="P4">
+            <v>30.984999999999999</v>
+          </cell>
+          <cell r="Q4">
+            <v>32.83</v>
+          </cell>
+          <cell r="R4">
+            <v>34.325000000000003</v>
+          </cell>
+          <cell r="S4">
+            <v>32.83</v>
+          </cell>
+          <cell r="T4">
+            <v>32.83</v>
+          </cell>
+          <cell r="U4">
+            <v>32.83</v>
+          </cell>
+          <cell r="V4">
+            <v>32.83</v>
+          </cell>
+          <cell r="W4">
+            <v>29.490000000000002</v>
+          </cell>
+          <cell r="X4">
+            <v>27.6</v>
+          </cell>
+          <cell r="Y4">
+            <v>27.085000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2748,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>
@@ -2797,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>(1+[2]Main!$B$4)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2806,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>(1+[2]Main!$B$5)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$5)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2815,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <f>(1+[2]Main!$B$6)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$6)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2824,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <f>(1+[2]Main!$B$7)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$7)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2833,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <f>(1+[2]Main!$B$8)^($B$3-[2]Main!$B$1)</f>
+        <f>(1+[1]Main!$B$8)^($B$3-[1]Main!$B$1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2935,99 +2929,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B2*Scenarios!$B$9</f>
         <v>42.153333333333336</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C2*Scenarios!$B$9</f>
         <v>42.486666666666672</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D2*Scenarios!$B$9</f>
         <v>42.486666666666672</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E2*Scenarios!$B$9</f>
         <v>51.303333333333335</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F2*Scenarios!$B$9</f>
         <v>44.726666666666667</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G2*Scenarios!$B$9</f>
         <v>53.636666666666677</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H2*Scenarios!$B$9</f>
         <v>52.483333333333327</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I2*Scenarios!$B$9</f>
         <v>40.266666666666673</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J2*Scenarios!$B$9</f>
         <v>40.466666666666669</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K2*Scenarios!$B$9</f>
         <v>59.133333333333333</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L2*Scenarios!$B$9</f>
         <v>40.833333333333336</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M2*Scenarios!$B$9</f>
         <v>40.833333333333336</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N2*Scenarios!$B$9</f>
         <v>59.5</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O2*Scenarios!$B$9</f>
         <v>59.5</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P2*Scenarios!$B$9</f>
         <v>44.09</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q2*Scenarios!$B$9</f>
         <v>40.800000000000004</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R2*Scenarios!$B$9</f>
         <v>40.800000000000004</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S2*Scenarios!$B$9</f>
         <v>41.06666666666667</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T2*Scenarios!$B$9</f>
         <v>40.866666666666667</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U2*Scenarios!$B$9</f>
         <v>44.09</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V2*Scenarios!$B$9</f>
         <v>40.6</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W2*Scenarios!$B$9</f>
         <v>45.860000000000007</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X2*Scenarios!$B$9</f>
         <v>37.6</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y2*Scenarios!$B$9</f>
         <v>37.6</v>
       </c>
     </row>
@@ -3036,99 +3030,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B3*Scenarios!$B$9</f>
         <v>36.216666666666669</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C3*Scenarios!$B$9</f>
         <v>36.88333333333334</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D3*Scenarios!$B$9</f>
         <v>36.88333333333334</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E3*Scenarios!$B$9</f>
         <v>45.351666666666667</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F3*Scenarios!$B$9</f>
         <v>40.36333333333333</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G3*Scenarios!$B$9</f>
         <v>61.338333333333338</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H3*Scenarios!$B$9</f>
         <v>60.76166666666667</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I3*Scenarios!$B$9</f>
         <v>39.833333333333336</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J3*Scenarios!$B$9</f>
         <v>40.233333333333334</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K3*Scenarios!$B$9</f>
         <v>49.266666666666666</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L3*Scenarios!$B$9</f>
         <v>40.116666666666667</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M3*Scenarios!$B$9</f>
         <v>40.116666666666667</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N3*Scenarios!$B$9</f>
         <v>49.45</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O3*Scenarios!$B$9</f>
         <v>49.45</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P3*Scenarios!$B$9</f>
         <v>41.745000000000005</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q3*Scenarios!$B$9</f>
         <v>40.1</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R3*Scenarios!$B$9</f>
         <v>40.400000000000006</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S3*Scenarios!$B$9</f>
         <v>40.63333333333334</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T3*Scenarios!$B$9</f>
         <v>40.533333333333331</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U3*Scenarios!$B$9</f>
         <v>41.745000000000005</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V3*Scenarios!$B$9</f>
         <v>40</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W3*Scenarios!$B$9</f>
         <v>42.63</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X3*Scenarios!$B$9</f>
         <v>38.799999999999997</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y3*Scenarios!$B$9</f>
         <v>38.799999999999997</v>
       </c>
     </row>
@@ -3137,99 +3131,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!B4*Scenarios!$B$9</f>
         <v>30.28</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!C4*Scenarios!$B$9</f>
         <v>31.28</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!D4*Scenarios!$B$9</f>
         <v>31.28</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!E4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!F4*Scenarios!$B$9</f>
         <v>36</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!G4*Scenarios!$B$9</f>
         <v>69.040000000000006</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!H4*Scenarios!$B$9</f>
         <v>69.040000000000006</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!I4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!J4*Scenarios!$B$9</f>
         <v>40</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!K4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!L4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!M4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!N4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!O4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!P4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Q4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!R4*Scenarios!$B$9</f>
         <v>40</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!S4*Scenarios!$B$9</f>
         <v>40.200000000000003</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!T4*Scenarios!$B$9</f>
         <v>40.200000000000003</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!U4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!V4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!W4*Scenarios!$B$9</f>
         <v>39.4</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!X4*Scenarios!$B$9</f>
         <v>40</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Summer'!Y4*Scenarios!$B$9</f>
         <v>40</v>
       </c>
     </row>
@@ -3382,99 +3376,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B2*Scenarios!$B$10</f>
         <v>24.09</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C2*Scenarios!$B$10</f>
         <v>24.09</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D2*Scenarios!$B$10</f>
         <v>24.09</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E2*Scenarios!$B$10</f>
         <v>24.09</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F2*Scenarios!$B$10</f>
         <v>29.04</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G2*Scenarios!$B$10</f>
         <v>29.03</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H2*Scenarios!$B$10</f>
         <v>29.05</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I2*Scenarios!$B$10</f>
         <v>29.04</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J2*Scenarios!$B$10</f>
         <v>29.04</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K2*Scenarios!$B$10</f>
         <v>29.05</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L2*Scenarios!$B$10</f>
         <v>32</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M2*Scenarios!$B$10</f>
         <v>29.03</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N2*Scenarios!$B$10</f>
         <v>29.03</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O2*Scenarios!$B$10</f>
         <v>29.03</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P2*Scenarios!$B$10</f>
         <v>32</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R2*Scenarios!$B$10</f>
         <v>32</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X2*Scenarios!$B$10</f>
         <v>29.01</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y2*Scenarios!$B$10</f>
         <v>27.98</v>
       </c>
     </row>
@@ -3483,99 +3477,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B3*Scenarios!$B$10</f>
         <v>27.917499999999997</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C3*Scenarios!$B$10</f>
         <v>27.917499999999997</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D3*Scenarios!$B$10</f>
         <v>27.917499999999997</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E3*Scenarios!$B$10</f>
         <v>27.917499999999997</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F3*Scenarios!$B$10</f>
         <v>31.63</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G3*Scenarios!$B$10</f>
         <v>23.537500000000001</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H3*Scenarios!$B$10</f>
         <v>29.28</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I3*Scenarios!$B$10</f>
         <v>26.9175</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J3*Scenarios!$B$10</f>
         <v>26.9175</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K3*Scenarios!$B$10</f>
         <v>30.950000000000003</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L3*Scenarios!$B$10</f>
         <v>33.162500000000001</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M3*Scenarios!$B$10</f>
         <v>30.935000000000002</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N3*Scenarios!$B$10</f>
         <v>29.265000000000001</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O3*Scenarios!$B$10</f>
         <v>29.265000000000001</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P3*Scenarios!$B$10</f>
         <v>31.4925</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q3*Scenarios!$B$10</f>
         <v>30.92</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R3*Scenarios!$B$10</f>
         <v>33.162500000000001</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S3*Scenarios!$B$10</f>
         <v>30.92</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T3*Scenarios!$B$10</f>
         <v>30.92</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U3*Scenarios!$B$10</f>
         <v>30.92</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V3*Scenarios!$B$10</f>
         <v>30.92</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W3*Scenarios!$B$10</f>
         <v>29.25</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X3*Scenarios!$B$10</f>
         <v>28.305</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y3*Scenarios!$B$10</f>
         <v>27.532499999999999</v>
       </c>
     </row>
@@ -3584,99 +3578,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!B4*Scenarios!$B$10</f>
         <v>31.744999999999997</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!C4*Scenarios!$B$10</f>
         <v>31.744999999999997</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!D4*Scenarios!$B$10</f>
         <v>31.744999999999997</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!E4*Scenarios!$B$10</f>
         <v>31.744999999999997</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!F4*Scenarios!$B$10</f>
         <v>34.22</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!G4*Scenarios!$B$10</f>
         <v>18.045000000000002</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!H4*Scenarios!$B$10</f>
         <v>29.509999999999998</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!I4*Scenarios!$B$10</f>
         <v>24.795000000000002</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!J4*Scenarios!$B$10</f>
         <v>24.795000000000002</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!K4*Scenarios!$B$10</f>
         <v>32.85</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!L4*Scenarios!$B$10</f>
         <v>34.325000000000003</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!M4*Scenarios!$B$10</f>
         <v>32.840000000000003</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!N4*Scenarios!$B$10</f>
         <v>29.5</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!O4*Scenarios!$B$10</f>
         <v>29.5</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!P4*Scenarios!$B$10</f>
         <v>30.984999999999999</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Q4*Scenarios!$B$10</f>
         <v>32.83</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!R4*Scenarios!$B$10</f>
         <v>34.325000000000003</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!S4*Scenarios!$B$10</f>
         <v>32.83</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!T4*Scenarios!$B$10</f>
         <v>32.83</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!U4*Scenarios!$B$10</f>
         <v>32.83</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!V4*Scenarios!$B$10</f>
         <v>32.83</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!W4*Scenarios!$B$10</f>
         <v>29.490000000000002</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!X4*Scenarios!$B$10</f>
         <v>27.6</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Summer'!Y4*Scenarios!$B$10</f>
         <v>27.085000000000001</v>
       </c>
     </row>
@@ -3829,99 +3823,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B2*Scenarios!$B$6</f>
         <v>43.71</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C2*Scenarios!$B$6</f>
         <v>40.784999999999997</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D2*Scenarios!$B$6</f>
         <v>39.052499999999995</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E2*Scenarios!$B$6</f>
         <v>36.622500000000002</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F2*Scenarios!$B$6</f>
         <v>37.715000000000003</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G2*Scenarios!$B$6</f>
         <v>40.745000000000005</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H2*Scenarios!$B$6</f>
         <v>49.295000000000002</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I2*Scenarios!$B$6</f>
         <v>51.59</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J2*Scenarios!$B$6</f>
         <v>54.25</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K2*Scenarios!$B$6</f>
         <v>53.837499999999999</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L2*Scenarios!$B$6</f>
         <v>52.800000000000004</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M2*Scenarios!$B$6</f>
         <v>52.542499999999997</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N2*Scenarios!$B$6</f>
         <v>50.507499999999993</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O2*Scenarios!$B$6</f>
         <v>49.795000000000002</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P2*Scenarios!$B$6</f>
         <v>48.817500000000003</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q2*Scenarios!$B$6</f>
         <v>48.914999999999999</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R2*Scenarios!$B$6</f>
         <v>49.67</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S2*Scenarios!$B$6</f>
         <v>52.125</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T2*Scenarios!$B$6</f>
         <v>54.620000000000005</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U2*Scenarios!$B$6</f>
         <v>55.040000000000006</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V2*Scenarios!$B$6</f>
         <v>53.769999999999996</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W2*Scenarios!$B$6</f>
         <v>50.392499999999998</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X2*Scenarios!$B$6</f>
         <v>45.482500000000002</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y2*Scenarios!$B$6</f>
         <v>42.69</v>
       </c>
     </row>
@@ -3930,99 +3924,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B3*Scenarios!$B$6</f>
         <v>40.82</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C3*Scenarios!$B$6</f>
         <v>38.53</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D3*Scenarios!$B$6</f>
         <v>36.034999999999997</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E3*Scenarios!$B$6</f>
         <v>34.424999999999997</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F3*Scenarios!$B$6</f>
         <v>36.340000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G3*Scenarios!$B$6</f>
         <v>38.28</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H3*Scenarios!$B$6</f>
         <v>44.2</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I3*Scenarios!$B$6</f>
         <v>46.17</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J3*Scenarios!$B$6</f>
         <v>48.480000000000004</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K3*Scenarios!$B$6</f>
         <v>48.805</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L3*Scenarios!$B$6</f>
         <v>47.400000000000006</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M3*Scenarios!$B$6</f>
         <v>46.424999999999997</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N3*Scenarios!$B$6</f>
         <v>45.004999999999995</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O3*Scenarios!$B$6</f>
         <v>44.53</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P3*Scenarios!$B$6</f>
         <v>42.545000000000002</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q3*Scenarios!$B$6</f>
         <v>42.21</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R3*Scenarios!$B$6</f>
         <v>43.08</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S3*Scenarios!$B$6</f>
         <v>47.5</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T3*Scenarios!$B$6</f>
         <v>49.730000000000004</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U3*Scenarios!$B$6</f>
         <v>50.510000000000005</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V3*Scenarios!$B$6</f>
         <v>50.79</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W3*Scenarios!$B$6</f>
         <v>48.534999999999997</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X3*Scenarios!$B$6</f>
         <v>43.954999999999998</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y3*Scenarios!$B$6</f>
         <v>41.71</v>
       </c>
     </row>
@@ -4031,99 +4025,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!B4*Scenarios!$B$6</f>
         <v>46.6</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!C4*Scenarios!$B$6</f>
         <v>43.04</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!D4*Scenarios!$B$6</f>
         <v>42.07</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!E4*Scenarios!$B$6</f>
         <v>38.82</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!F4*Scenarios!$B$6</f>
         <v>39.090000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!G4*Scenarios!$B$6</f>
         <v>43.21</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!H4*Scenarios!$B$6</f>
         <v>54.39</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!I4*Scenarios!$B$6</f>
         <v>57.01</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!J4*Scenarios!$B$6</f>
         <v>60.02</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!K4*Scenarios!$B$6</f>
         <v>58.87</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!L4*Scenarios!$B$6</f>
         <v>58.2</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!M4*Scenarios!$B$6</f>
         <v>58.66</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!N4*Scenarios!$B$6</f>
         <v>56.01</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!O4*Scenarios!$B$6</f>
         <v>55.06</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!P4*Scenarios!$B$6</f>
         <v>55.09</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Q4*Scenarios!$B$6</f>
         <v>55.62</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!R4*Scenarios!$B$6</f>
         <v>56.26</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!S4*Scenarios!$B$6</f>
         <v>56.75</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!T4*Scenarios!$B$6</f>
         <v>59.51</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!U4*Scenarios!$B$6</f>
         <v>59.57</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!V4*Scenarios!$B$6</f>
         <v>56.75</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!W4*Scenarios!$B$6</f>
         <v>52.25</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!X4*Scenarios!$B$6</f>
         <v>47.01</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Winter'!Y4*Scenarios!$B$6</f>
         <v>43.67</v>
       </c>
     </row>
@@ -4277,99 +4271,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B2*Scenarios!$B$6</f>
         <v>52.451999999999998</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C2*Scenarios!$B$6</f>
         <v>48.941999999999993</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D2*Scenarios!$B$6</f>
         <v>46.863</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E2*Scenarios!$B$6</f>
         <v>43.947000000000003</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F2*Scenarios!$B$6</f>
         <v>45.258000000000003</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G2*Scenarios!$B$6</f>
         <v>48.894000000000005</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H2*Scenarios!$B$6</f>
         <v>59.153999999999989</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I2*Scenarios!$B$6</f>
         <v>61.908000000000001</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J2*Scenarios!$B$6</f>
         <v>65.099999999999994</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K2*Scenarios!$B$6</f>
         <v>64.60499999999999</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L2*Scenarios!$B$6</f>
         <v>63.360000000000014</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M2*Scenarios!$B$6</f>
         <v>63.050999999999995</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N2*Scenarios!$B$6</f>
         <v>60.608999999999988</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O2*Scenarios!$B$6</f>
         <v>59.753999999999991</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P2*Scenarios!$B$6</f>
         <v>58.581000000000003</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
         <v>58.697999999999993</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R2*Scenarios!$B$6</f>
         <v>59.603999999999992</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S2*Scenarios!$B$6</f>
         <v>62.55</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T2*Scenarios!$B$6</f>
         <v>65.543999999999997</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U2*Scenarios!$B$6</f>
         <v>66.048000000000002</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V2*Scenarios!$B$6</f>
         <v>64.524000000000001</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W2*Scenarios!$B$6</f>
         <v>60.471000000000004</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X2*Scenarios!$B$6</f>
         <v>54.578999999999994</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
         <v>51.227999999999994</v>
       </c>
     </row>
@@ -4378,99 +4372,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B3*Scenarios!$B$6</f>
         <v>52.451999999999998</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C3*Scenarios!$B$6</f>
         <v>48.941999999999993</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D3*Scenarios!$B$6</f>
         <v>46.863</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E3*Scenarios!$B$6</f>
         <v>43.947000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F3*Scenarios!$B$6</f>
         <v>45.258000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G3*Scenarios!$B$6</f>
         <v>48.894000000000005</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H3*Scenarios!$B$6</f>
         <v>59.153999999999989</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I3*Scenarios!$B$6</f>
         <v>61.908000000000001</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J3*Scenarios!$B$6</f>
         <v>65.099999999999994</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K3*Scenarios!$B$6</f>
         <v>64.60499999999999</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L3*Scenarios!$B$6</f>
         <v>63.360000000000014</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M3*Scenarios!$B$6</f>
         <v>63.050999999999995</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N3*Scenarios!$B$6</f>
         <v>60.608999999999988</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O3*Scenarios!$B$6</f>
         <v>59.753999999999991</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P3*Scenarios!$B$6</f>
         <v>58.581000000000003</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
         <v>58.697999999999993</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R3*Scenarios!$B$6</f>
         <v>59.603999999999992</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S3*Scenarios!$B$6</f>
         <v>62.55</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T3*Scenarios!$B$6</f>
         <v>65.543999999999997</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U3*Scenarios!$B$6</f>
         <v>66.048000000000002</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V3*Scenarios!$B$6</f>
         <v>64.524000000000001</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W3*Scenarios!$B$6</f>
         <v>60.471000000000004</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X3*Scenarios!$B$6</f>
         <v>54.578999999999994</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
         <v>51.227999999999994</v>
       </c>
     </row>
@@ -4479,99 +4473,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!B4*Scenarios!$B$6</f>
         <v>52.451999999999998</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!C4*Scenarios!$B$6</f>
         <v>48.941999999999993</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!D4*Scenarios!$B$6</f>
         <v>46.863</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!E4*Scenarios!$B$6</f>
         <v>43.947000000000003</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!F4*Scenarios!$B$6</f>
         <v>45.258000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!G4*Scenarios!$B$6</f>
         <v>48.894000000000005</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!H4*Scenarios!$B$6</f>
         <v>59.153999999999989</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!I4*Scenarios!$B$6</f>
         <v>61.908000000000001</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!J4*Scenarios!$B$6</f>
         <v>65.099999999999994</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!K4*Scenarios!$B$6</f>
         <v>64.60499999999999</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!L4*Scenarios!$B$6</f>
         <v>63.360000000000014</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!M4*Scenarios!$B$6</f>
         <v>63.050999999999995</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!N4*Scenarios!$B$6</f>
         <v>60.608999999999988</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!O4*Scenarios!$B$6</f>
         <v>59.753999999999991</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!P4*Scenarios!$B$6</f>
         <v>58.581000000000003</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
         <v>58.697999999999993</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!R4*Scenarios!$B$6</f>
         <v>59.603999999999992</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!S4*Scenarios!$B$6</f>
         <v>62.55</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!T4*Scenarios!$B$6</f>
         <v>65.543999999999997</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!U4*Scenarios!$B$6</f>
         <v>66.048000000000002</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!V4*Scenarios!$B$6</f>
         <v>64.524000000000001</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!W4*Scenarios!$B$6</f>
         <v>60.471000000000004</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!X4*Scenarios!$B$6</f>
         <v>54.578999999999994</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
         <v>51.227999999999994</v>
       </c>
     </row>
@@ -4725,99 +4719,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B2*Scenarios!$B$8</f>
         <v>25.342275000000001</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C2*Scenarios!$B$8</f>
         <v>24.594854999999999</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D2*Scenarios!$B$8</f>
         <v>27.759217499999998</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E2*Scenarios!$B$8</f>
         <v>30.54975</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F2*Scenarios!$B$8</f>
         <v>32.125005000000002</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G2*Scenarios!$B$8</f>
         <v>29.361535</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H2*Scenarios!$B$8</f>
         <v>27.199200000000001</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I2*Scenarios!$B$8</f>
         <v>29.454137500000002</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J2*Scenarios!$B$8</f>
         <v>25.75685</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K2*Scenarios!$B$8</f>
         <v>23.352209999999999</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L2*Scenarios!$B$8</f>
         <v>22.9788</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M2*Scenarios!$B$8</f>
         <v>20.269462499999999</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N2*Scenarios!$B$8</f>
         <v>22.549799999999994</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O2*Scenarios!$B$8</f>
         <v>18.743400000000001</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P2*Scenarios!$B$8</f>
         <v>19.593999999999998</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q2*Scenarios!$B$8</f>
         <v>16.172449999999998</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R2*Scenarios!$B$8</f>
         <v>12.758287500000002</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S2*Scenarios!$B$8</f>
         <v>14.871139999999999</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T2*Scenarios!$B$8</f>
         <v>10.08586</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U2*Scenarios!$B$8</f>
         <v>8.7737250000000007</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V2*Scenarios!$B$8</f>
         <v>9.8389550000000003</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W2*Scenarios!$B$8</f>
         <v>13.74175</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X2*Scenarios!$B$8</f>
         <v>16.117327500000002</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y2*Scenarios!$B$8</f>
         <v>14.23521</v>
       </c>
     </row>
@@ -4826,99 +4820,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B3*Scenarios!$B$8</f>
         <v>20.34</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C3*Scenarios!$B$8</f>
         <v>21.39</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D3*Scenarios!$B$8</f>
         <v>29.287499999999998</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E3*Scenarios!$B$8</f>
         <v>33.202500000000001</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F3*Scenarios!$B$8</f>
         <v>36.134999999999998</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G3*Scenarios!$B$8</f>
         <v>35.917500000000004</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H3*Scenarios!$B$8</f>
         <v>35.67</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I3*Scenarios!$B$8</f>
         <v>37.387500000000003</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J3*Scenarios!$B$8</f>
         <v>34.799999999999997</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K3*Scenarios!$B$8</f>
         <v>30.075000000000003</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L3*Scenarios!$B$8</f>
         <v>30.93</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M3*Scenarios!$B$8</f>
         <v>25.297499999999999</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N3*Scenarios!$B$8</f>
         <v>28.83</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O3*Scenarios!$B$8</f>
         <v>21.509999999999998</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P3*Scenarios!$B$8</f>
         <v>22.65</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q3*Scenarios!$B$8</f>
         <v>20.34</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R3*Scenarios!$B$8</f>
         <v>13.642500000000002</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S3*Scenarios!$B$8</f>
         <v>17.009999999999998</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T3*Scenarios!$B$8</f>
         <v>11.115</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U3*Scenarios!$B$8</f>
         <v>9.75</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V3*Scenarios!$B$8</f>
         <v>10.8825</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W3*Scenarios!$B$8</f>
         <v>12.78</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X3*Scenarios!$B$8</f>
         <v>13.657500000000001</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y3*Scenarios!$B$8</f>
         <v>10.5</v>
       </c>
     </row>
@@ -4927,99 +4921,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!B4*Scenarios!$B$8</f>
         <v>27.930999999999997</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!C4*Scenarios!$B$8</f>
         <v>26.366999999999997</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!D4*Scenarios!$B$8</f>
         <v>27.948</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!E4*Scenarios!$B$8</f>
         <v>27.896999999999998</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!F4*Scenarios!$B$8</f>
         <v>28.764000000000003</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!G4*Scenarios!$B$8</f>
         <v>24.003999999999998</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!H4*Scenarios!$B$8</f>
         <v>20.994999999999997</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!I4*Scenarios!$B$8</f>
         <v>19.805</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!J4*Scenarios!$B$8</f>
         <v>17.764999999999997</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!K4*Scenarios!$B$8</f>
         <v>16.166999999999998</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!L4*Scenarios!$B$8</f>
         <v>13.26</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!M4*Scenarios!$B$8</f>
         <v>13.311</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!N4*Scenarios!$B$8</f>
         <v>14.535</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!O4*Scenarios!$B$8</f>
         <v>14.535</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!P4*Scenarios!$B$8</f>
         <v>16.149999999999999</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Q4*Scenarios!$B$8</f>
         <v>12.664999999999999</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!R4*Scenarios!$B$8</f>
         <v>10.658999999999999</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!S4*Scenarios!$B$8</f>
         <v>11.866</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!T4*Scenarios!$B$8</f>
         <v>8.8569999999999993</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!U4*Scenarios!$B$8</f>
         <v>8.7210000000000001</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!V4*Scenarios!$B$8</f>
         <v>9.1969999999999992</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!W4*Scenarios!$B$8</f>
         <v>16.149999999999999</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!X4*Scenarios!$B$8</f>
         <v>18.257999999999999</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Winter'!Y4*Scenarios!$B$8</f>
         <v>18.257999999999999</v>
       </c>
     </row>
@@ -5198,99 +5192,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B2*Scenarios!$B$9</f>
         <v>50.01</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C2*Scenarios!$B$9</f>
         <v>45</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D2*Scenarios!$B$9</f>
         <v>49</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E2*Scenarios!$B$9</f>
         <v>37.31</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F2*Scenarios!$B$9</f>
         <v>37.31</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G2*Scenarios!$B$9</f>
         <v>48</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H2*Scenarios!$B$9</f>
         <v>50.01</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I2*Scenarios!$B$9</f>
         <v>50.01</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J2*Scenarios!$B$9</f>
         <v>48</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K2*Scenarios!$B$9</f>
         <v>46.88</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y2*Scenarios!$B$9</f>
         <v>47.88</v>
       </c>
     </row>
@@ -5299,99 +5293,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I3*Scenarios!$B$9</f>
         <v>32.44</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K3*Scenarios!$B$9</f>
         <v>36.44</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P3*Scenarios!$B$9</f>
         <v>37.44</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q3*Scenarios!$B$9</f>
         <v>40.69</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V3*Scenarios!$B$9</f>
         <v>44.4</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X3*Scenarios!$B$9</f>
         <v>47.67</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y3*Scenarios!$B$9</f>
         <v>45</v>
       </c>
     </row>
@@ -5400,99 +5394,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!B4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!C4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!D4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!E4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!F4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!G4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!H4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!I4*Scenarios!$B$9</f>
         <v>56.99</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!J4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!K4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!L4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!M4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!N4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!O4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!P4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Q4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!R4*Scenarios!$B$9</f>
         <v>59.95</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!S4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!T4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!U4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!V4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!W4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!X4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
+        <f>'[2]Tertiary Reserve Up, Winter'!Y4*Scenarios!$B$9</f>
         <v>55</v>
       </c>
     </row>
@@ -5645,99 +5639,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E2*Scenarios!$B$10</f>
         <v>25.97</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F2*Scenarios!$B$10</f>
         <v>25.97</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O2*Scenarios!$B$10</f>
         <v>25.01</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q2*Scenarios!$B$10</f>
         <v>24.97</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y2*Scenarios!$B$10</f>
         <v>29.75</v>
       </c>
     </row>
@@ -5746,99 +5740,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B3*Scenarios!$B$10</f>
         <v>28.36</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C3*Scenarios!$B$10</f>
         <v>28.36</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D3*Scenarios!$B$10</f>
         <v>27.234999999999999</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E3*Scenarios!$B$10</f>
         <v>28.86</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F3*Scenarios!$B$10</f>
         <v>28.86</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G3*Scenarios!$B$10</f>
         <v>28.36</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H3*Scenarios!$B$10</f>
         <v>37.325000000000003</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I3*Scenarios!$B$10</f>
         <v>30.75</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J3*Scenarios!$B$10</f>
         <v>32.480000000000004</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K3*Scenarios!$B$10</f>
         <v>34.879999999999995</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L3*Scenarios!$B$10</f>
         <v>32.489999999999995</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M3*Scenarios!$B$10</f>
         <v>32.489999999999995</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N3*Scenarios!$B$10</f>
         <v>32.480000000000004</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O3*Scenarios!$B$10</f>
         <v>32.5</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P3*Scenarios!$B$10</f>
         <v>32.480000000000004</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q3*Scenarios!$B$10</f>
         <v>32.480000000000004</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R3*Scenarios!$B$10</f>
         <v>34.885000000000005</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S3*Scenarios!$B$10</f>
         <v>36.875</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T3*Scenarios!$B$10</f>
         <v>36.875</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U3*Scenarios!$B$10</f>
         <v>36.875</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V3*Scenarios!$B$10</f>
         <v>36.875</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W3*Scenarios!$B$10</f>
         <v>35.370000000000005</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X3*Scenarios!$B$10</f>
         <v>30.75</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y3*Scenarios!$B$10</f>
         <v>30.75</v>
       </c>
     </row>
@@ -5847,99 +5841,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!B4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!C4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!D4*Scenarios!$B$10</f>
         <v>29.5</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!E4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!F4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!G4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!H4*Scenarios!$B$10</f>
         <v>44.9</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!I4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!J4*Scenarios!$B$10</f>
         <v>39.99</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!K4*Scenarios!$B$10</f>
         <v>40.01</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!L4*Scenarios!$B$10</f>
         <v>40.01</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!M4*Scenarios!$B$10</f>
         <v>40.01</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!N4*Scenarios!$B$10</f>
         <v>39.99</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!O4*Scenarios!$B$10</f>
         <v>39.99</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!P4*Scenarios!$B$10</f>
         <v>39.99</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Q4*Scenarios!$B$10</f>
         <v>39.99</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!R4*Scenarios!$B$10</f>
         <v>40.020000000000003</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!S4*Scenarios!$B$10</f>
         <v>44</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!T4*Scenarios!$B$10</f>
         <v>44</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!U4*Scenarios!$B$10</f>
         <v>44</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!V4*Scenarios!$B$10</f>
         <v>44</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!W4*Scenarios!$B$10</f>
         <v>40.99</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!X4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
+        <f>'[2]Tertiary Reserve Down, Winter'!Y4*Scenarios!$B$10</f>
         <v>31.75</v>
       </c>
     </row>
@@ -6092,99 +6086,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B2*Scenarios!$B$6</f>
         <v>37.270000000000003</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C2*Scenarios!$B$6</f>
         <v>34.01</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D2*Scenarios!$B$6</f>
         <v>32.57</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E2*Scenarios!$B$6</f>
         <v>31.98</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F2*Scenarios!$B$6</f>
         <v>32.130000000000003</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G2*Scenarios!$B$6</f>
         <v>36.369999999999997</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H2*Scenarios!$B$6</f>
         <v>37.909999999999997</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I2*Scenarios!$B$6</f>
         <v>37.909999999999997</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J2*Scenarios!$B$6</f>
         <v>39.840000000000003</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K2*Scenarios!$B$6</f>
         <v>39.94</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L2*Scenarios!$B$6</f>
         <v>39.840000000000003</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M2*Scenarios!$B$6</f>
         <v>40.01</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N2*Scenarios!$B$6</f>
         <v>39.44</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O2*Scenarios!$B$6</f>
         <v>39.19</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P2*Scenarios!$B$6</f>
         <v>38.369999999999997</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q2*Scenarios!$B$6</f>
         <v>37.19</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R2*Scenarios!$B$6</f>
         <v>34.979999999999997</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S2*Scenarios!$B$6</f>
         <v>37.369999999999997</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T2*Scenarios!$B$6</f>
         <v>38.799999999999997</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U2*Scenarios!$B$6</f>
         <v>39.9</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V2*Scenarios!$B$6</f>
         <v>39.04</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W2*Scenarios!$B$6</f>
         <v>39.840000000000003</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X2*Scenarios!$B$6</f>
         <v>39.76</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y2*Scenarios!$B$6</f>
         <v>38.14</v>
       </c>
     </row>
@@ -6193,99 +6187,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B3*Scenarios!$B$6</f>
         <v>39.68</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C3*Scenarios!$B$6</f>
         <v>35</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D3*Scenarios!$B$6</f>
         <v>38.200000000000003</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E3*Scenarios!$B$6</f>
         <v>36.9</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F3*Scenarios!$B$6</f>
         <v>37.61</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G3*Scenarios!$B$6</f>
         <v>38.200000000000003</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H3*Scenarios!$B$6</f>
         <v>37.21</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I3*Scenarios!$B$6</f>
         <v>40.18</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J3*Scenarios!$B$6</f>
         <v>42.84</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K3*Scenarios!$B$6</f>
         <v>43.03</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L3*Scenarios!$B$6</f>
         <v>43.45</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M3*Scenarios!$B$6</f>
         <v>44.27</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N3*Scenarios!$B$6</f>
         <v>44.97</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O3*Scenarios!$B$6</f>
         <v>46.14</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P3*Scenarios!$B$6</f>
         <v>44.39</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q3*Scenarios!$B$6</f>
         <v>43.01</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R3*Scenarios!$B$6</f>
         <v>42.86</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S3*Scenarios!$B$6</f>
         <v>43.73</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T3*Scenarios!$B$6</f>
         <v>43.97</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U3*Scenarios!$B$6</f>
         <v>44.9</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V3*Scenarios!$B$6</f>
         <v>45.45</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W3*Scenarios!$B$6</f>
         <v>46.15</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X3*Scenarios!$B$6</f>
         <v>44.97</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y3*Scenarios!$B$6</f>
         <v>42.5</v>
       </c>
     </row>
@@ -6294,99 +6288,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!B4*Scenarios!$B$6</f>
         <v>33.39</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!C4*Scenarios!$B$6</f>
         <v>30.82</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!D4*Scenarios!$B$6</f>
         <v>28.89</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!E4*Scenarios!$B$6</f>
         <v>28.43</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!F4*Scenarios!$B$6</f>
         <v>29.41</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!G4*Scenarios!$B$6</f>
         <v>34.39</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!H4*Scenarios!$B$6</f>
         <v>45.24</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!I4*Scenarios!$B$6</f>
         <v>42.92</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!J4*Scenarios!$B$6</f>
         <v>44.88</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!K4*Scenarios!$B$6</f>
         <v>44.3</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!L4*Scenarios!$B$6</f>
         <v>41.06</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!M4*Scenarios!$B$6</f>
         <v>39.9</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!N4*Scenarios!$B$6</f>
         <v>44.18</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!O4*Scenarios!$B$6</f>
         <v>45.18</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!P4*Scenarios!$B$6</f>
         <v>44.88</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Q4*Scenarios!$B$6</f>
         <v>44.35</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!R4*Scenarios!$B$6</f>
         <v>44.35</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!S4*Scenarios!$B$6</f>
         <v>44.88</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!T4*Scenarios!$B$6</f>
         <v>46.18</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!U4*Scenarios!$B$6</f>
         <v>47.88</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!V4*Scenarios!$B$6</f>
         <v>51.18</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!W4*Scenarios!$B$6</f>
         <v>55.69</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!X4*Scenarios!$B$6</f>
         <v>50.77</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Energy, Summer'!Y4*Scenarios!$B$6</f>
         <v>45</v>
       </c>
     </row>
@@ -6540,99 +6534,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B2*Scenarios!$B$6</f>
         <v>44.136000000000003</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C2*Scenarios!$B$6</f>
         <v>39.931999999999995</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D2*Scenarios!$B$6</f>
         <v>39.864000000000004</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E2*Scenarios!$B$6</f>
         <v>38.923999999999999</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F2*Scenarios!$B$6</f>
         <v>39.660000000000004</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G2*Scenarios!$B$6</f>
         <v>43.583999999999996</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H2*Scenarios!$B$6</f>
         <v>48.144000000000005</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I2*Scenarios!$B$6</f>
         <v>48.403999999999996</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J2*Scenarios!$B$6</f>
         <v>51.024000000000001</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K2*Scenarios!$B$6</f>
         <v>50.907999999999994</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L2*Scenarios!$B$6</f>
         <v>49.74</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M2*Scenarios!$B$6</f>
         <v>49.672000000000004</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N2*Scenarios!$B$6</f>
         <v>51.436</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O2*Scenarios!$B$6</f>
         <v>52.203999999999994</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P2*Scenarios!$B$6</f>
         <v>51.05599999999999</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
         <v>49.819999999999986</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R2*Scenarios!$B$6</f>
         <v>48.875999999999998</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S2*Scenarios!$B$6</f>
         <v>50.391999999999996</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T2*Scenarios!$B$6</f>
         <v>51.579999999999991</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U2*Scenarios!$B$6</f>
         <v>53.071999999999996</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V2*Scenarios!$B$6</f>
         <v>54.268000000000001</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W2*Scenarios!$B$6</f>
         <v>56.671999999999997</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X2*Scenarios!$B$6</f>
         <v>54.199999999999996</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
         <v>50.256</v>
       </c>
     </row>
@@ -6641,99 +6635,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B3*Scenarios!$B$6</f>
         <v>44.136000000000003</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C3*Scenarios!$B$6</f>
         <v>39.931999999999995</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D3*Scenarios!$B$6</f>
         <v>39.864000000000004</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E3*Scenarios!$B$6</f>
         <v>38.923999999999999</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F3*Scenarios!$B$6</f>
         <v>39.660000000000004</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G3*Scenarios!$B$6</f>
         <v>43.583999999999996</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H3*Scenarios!$B$6</f>
         <v>48.144000000000005</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I3*Scenarios!$B$6</f>
         <v>48.403999999999996</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J3*Scenarios!$B$6</f>
         <v>51.024000000000001</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K3*Scenarios!$B$6</f>
         <v>50.907999999999994</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L3*Scenarios!$B$6</f>
         <v>49.74</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M3*Scenarios!$B$6</f>
         <v>49.672000000000004</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N3*Scenarios!$B$6</f>
         <v>51.436</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O3*Scenarios!$B$6</f>
         <v>52.203999999999994</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P3*Scenarios!$B$6</f>
         <v>51.05599999999999</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
         <v>49.819999999999986</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R3*Scenarios!$B$6</f>
         <v>48.875999999999998</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S3*Scenarios!$B$6</f>
         <v>50.391999999999996</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T3*Scenarios!$B$6</f>
         <v>51.579999999999991</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U3*Scenarios!$B$6</f>
         <v>53.071999999999996</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V3*Scenarios!$B$6</f>
         <v>54.268000000000001</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W3*Scenarios!$B$6</f>
         <v>56.671999999999997</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X3*Scenarios!$B$6</f>
         <v>54.199999999999996</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
         <v>50.256</v>
       </c>
     </row>
@@ -6742,99 +6736,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!B4*Scenarios!$B$6</f>
         <v>44.136000000000003</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!C4*Scenarios!$B$6</f>
         <v>39.931999999999995</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!D4*Scenarios!$B$6</f>
         <v>39.864000000000004</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!E4*Scenarios!$B$6</f>
         <v>38.923999999999999</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!F4*Scenarios!$B$6</f>
         <v>39.660000000000004</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!G4*Scenarios!$B$6</f>
         <v>43.583999999999996</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!H4*Scenarios!$B$6</f>
         <v>48.144000000000005</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!I4*Scenarios!$B$6</f>
         <v>48.403999999999996</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!J4*Scenarios!$B$6</f>
         <v>51.024000000000001</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!K4*Scenarios!$B$6</f>
         <v>50.907999999999994</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!L4*Scenarios!$B$6</f>
         <v>49.74</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!M4*Scenarios!$B$6</f>
         <v>49.672000000000004</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!N4*Scenarios!$B$6</f>
         <v>51.436</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!O4*Scenarios!$B$6</f>
         <v>52.203999999999994</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!P4*Scenarios!$B$6</f>
         <v>51.05599999999999</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
         <v>49.819999999999986</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!R4*Scenarios!$B$6</f>
         <v>48.875999999999998</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!S4*Scenarios!$B$6</f>
         <v>50.391999999999996</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!T4*Scenarios!$B$6</f>
         <v>51.579999999999991</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!U4*Scenarios!$B$6</f>
         <v>53.071999999999996</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!V4*Scenarios!$B$6</f>
         <v>54.268000000000001</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!W4*Scenarios!$B$6</f>
         <v>56.671999999999997</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!X4*Scenarios!$B$6</f>
         <v>54.199999999999996</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
+        <f>'[2]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
         <v>50.256</v>
       </c>
     </row>
@@ -6988,99 +6982,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B2*Scenarios!$B$8</f>
         <v>10.26</v>
       </c>
       <c r="C2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C2*Scenarios!$B$8</f>
         <v>10.909500000000001</v>
       </c>
       <c r="D2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D2*Scenarios!$B$8</f>
         <v>10.084849999999999</v>
       </c>
       <c r="E2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E2*Scenarios!$B$8</f>
         <v>8.7750000000000004</v>
       </c>
       <c r="F2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F2*Scenarios!$B$8</f>
         <v>7.9588000000000001</v>
       </c>
       <c r="G2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G2*Scenarios!$B$8</f>
         <v>6.3310499999999994</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H2*Scenarios!$B$8</f>
         <v>5.706900000000001</v>
       </c>
       <c r="I2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I2*Scenarios!$B$8</f>
         <v>4.8929999999999998</v>
       </c>
       <c r="J2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J2*Scenarios!$B$8</f>
         <v>4.0228999999999999</v>
       </c>
       <c r="K2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K2*Scenarios!$B$8</f>
         <v>4.4879999999999995</v>
       </c>
       <c r="L2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L2*Scenarios!$B$8</f>
         <v>4.2223500000000005</v>
       </c>
       <c r="M2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M2*Scenarios!$B$8</f>
         <v>4.0441500000000001</v>
       </c>
       <c r="N2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N2*Scenarios!$B$8</f>
         <v>3.6749999999999998</v>
       </c>
       <c r="O2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O2*Scenarios!$B$8</f>
         <v>4.1912000000000003</v>
       </c>
       <c r="P2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P2*Scenarios!$B$8</f>
         <v>4.4894500000000006</v>
       </c>
       <c r="Q2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q2*Scenarios!$B$8</f>
         <v>3.9945499999999998</v>
       </c>
       <c r="R2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R2*Scenarios!$B$8</f>
         <v>2.9760000000000004</v>
       </c>
       <c r="S2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S2*Scenarios!$B$8</f>
         <v>2.5608</v>
       </c>
       <c r="T2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T2*Scenarios!$B$8</f>
         <v>3.0141000000000004</v>
       </c>
       <c r="U2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U2*Scenarios!$B$8</f>
         <v>2.2196999999999996</v>
       </c>
       <c r="V2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V2*Scenarios!$B$8</f>
         <v>3.6414</v>
       </c>
       <c r="W2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W2*Scenarios!$B$8</f>
         <v>6.7825499999999996</v>
       </c>
       <c r="X2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X2*Scenarios!$B$8</f>
         <v>7.5711999999999993</v>
       </c>
       <c r="Y2" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y2*Scenarios!$B$8</f>
         <v>6.9015499999999994</v>
       </c>
     </row>
@@ -7089,99 +7083,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B3*Scenarios!$B$8</f>
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C3*Scenarios!$B$8</f>
         <v>7.99</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D3*Scenarios!$B$8</f>
         <v>7.76</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E3*Scenarios!$B$8</f>
         <v>8</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F3*Scenarios!$B$8</f>
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G3*Scenarios!$B$8</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H3*Scenarios!$B$8</f>
         <v>6.44</v>
       </c>
       <c r="I3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I3*Scenarios!$B$8</f>
         <v>4.71</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J3*Scenarios!$B$8</f>
         <v>4.67</v>
       </c>
       <c r="K3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K3*Scenarios!$B$8</f>
         <v>5.66</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L3*Scenarios!$B$8</f>
         <v>4.79</v>
       </c>
       <c r="M3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M3*Scenarios!$B$8</f>
         <v>5.08</v>
       </c>
       <c r="N3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N3*Scenarios!$B$8</f>
         <v>4.07</v>
       </c>
       <c r="O3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O3*Scenarios!$B$8</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P3*Scenarios!$B$8</f>
         <v>5.27</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q3*Scenarios!$B$8</f>
         <v>4.63</v>
       </c>
       <c r="R3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R3*Scenarios!$B$8</f>
         <v>4.41</v>
       </c>
       <c r="S3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S3*Scenarios!$B$8</f>
         <v>3.49</v>
       </c>
       <c r="T3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T3*Scenarios!$B$8</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U3*Scenarios!$B$8</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="V3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V3*Scenarios!$B$8</f>
         <v>4.97</v>
       </c>
       <c r="W3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W3*Scenarios!$B$8</f>
         <v>8.57</v>
       </c>
       <c r="X3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X3*Scenarios!$B$8</f>
         <v>8.25</v>
       </c>
       <c r="Y3" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y3*Scenarios!$B$8</f>
         <v>6.83</v>
       </c>
     </row>
@@ -7190,99 +7184,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!B4*Scenarios!$B$8</f>
         <v>12.52</v>
       </c>
       <c r="C4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!C4*Scenarios!$B$8</f>
         <v>12.79</v>
       </c>
       <c r="D4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!D4*Scenarios!$B$8</f>
         <v>12.21</v>
       </c>
       <c r="E4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!E4*Scenarios!$B$8</f>
         <v>9.5500000000000007</v>
       </c>
       <c r="F4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!F4*Scenarios!$B$8</f>
         <v>4.76</v>
       </c>
       <c r="G4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!G4*Scenarios!$B$8</f>
         <v>4.26</v>
       </c>
       <c r="H4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!H4*Scenarios!$B$8</f>
         <v>4.75</v>
       </c>
       <c r="I4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!I4*Scenarios!$B$8</f>
         <v>4.6100000000000003</v>
       </c>
       <c r="J4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!J4*Scenarios!$B$8</f>
         <v>3.54</v>
       </c>
       <c r="K4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!K4*Scenarios!$B$8</f>
         <v>3.69</v>
       </c>
       <c r="L4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!L4*Scenarios!$B$8</f>
         <v>3.74</v>
       </c>
       <c r="M4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!M4*Scenarios!$B$8</f>
         <v>3.09</v>
       </c>
       <c r="N4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!N4*Scenarios!$B$8</f>
         <v>3.43</v>
       </c>
       <c r="O4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!O4*Scenarios!$B$8</f>
         <v>3.62</v>
       </c>
       <c r="P4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!P4*Scenarios!$B$8</f>
         <v>3.62</v>
       </c>
       <c r="Q4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Q4*Scenarios!$B$8</f>
         <v>3.28</v>
       </c>
       <c r="R4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!R4*Scenarios!$B$8</f>
         <v>1.79</v>
       </c>
       <c r="S4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!S4*Scenarios!$B$8</f>
         <v>1.79</v>
       </c>
       <c r="T4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!T4*Scenarios!$B$8</f>
         <v>1.47</v>
       </c>
       <c r="U4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!U4*Scenarios!$B$8</f>
         <v>2.23</v>
       </c>
       <c r="V4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!V4*Scenarios!$B$8</f>
         <v>2.17</v>
       </c>
       <c r="W4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!W4*Scenarios!$B$8</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="X4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!X4*Scenarios!$B$8</f>
         <v>6.31</v>
       </c>
       <c r="Y4" s="2">
-        <f>'[1]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
+        <f>'[2]Secondary Reserve, Summer'!Y4*Scenarios!$B$8</f>
         <v>7.4</v>
       </c>
     </row>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA69744-19AA-4C82-A9F7-BED21C058A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1897E-37E5-4967-A1B3-CEE6903414DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24870" yWindow="4725" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23535" yWindow="4830" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,16 +2755,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1897E-37E5-4967-A1B3-CEE6903414DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179731CB-364F-4B2E-9999-02795602C67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23535" yWindow="4830" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179731CB-364F-4B2E-9999-02795602C67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA914E9-1BF7-4FDD-A62C-999C36800E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA914E9-1BF7-4FDD-A62C-999C36800E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6169B3E-FC5E-4FD2-8304-6D100EA631AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6169B3E-FC5E-4FD2-8304-6D100EA631AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D642F-E6E3-4B4E-9CDA-2DB1D7514F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS2/Market Data/CS2_market_data_2020.xlsx
+++ b/data/CS2/Market Data/CS2_market_data_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D642F-E6E3-4B4E-9CDA-2DB1D7514F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42645926-DA90-4AC1-AC9E-05AE50F74DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
